--- a/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.289706107737118</v>
+        <v>1.289706107737032</v>
       </c>
       <c r="C2">
         <v>0.4155632632503909</v>
       </c>
       <c r="D2">
-        <v>0.01436688434298627</v>
+        <v>0.01436688434304223</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.230314173126388</v>
+        <v>1.230314173126374</v>
       </c>
       <c r="G2">
-        <v>0.9225502715254095</v>
+        <v>0.9225502715253668</v>
       </c>
       <c r="H2">
-        <v>0.6574440697966537</v>
+        <v>0.657444069796675</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.389861053085653</v>
+        <v>0.3898610530856246</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.789315354970867</v>
+        <v>2.789315354970796</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.121319087337895</v>
+        <v>1.121319087337866</v>
       </c>
       <c r="C3">
-        <v>0.361766993545757</v>
+        <v>0.3617669935458707</v>
       </c>
       <c r="D3">
-        <v>0.01526071999842582</v>
+        <v>0.0152607199982695</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.103748417297481</v>
       </c>
       <c r="G3">
-        <v>0.8337719738675418</v>
+        <v>0.8337719738675631</v>
       </c>
       <c r="H3">
         <v>0.6092736673009114</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.339044265945958</v>
+        <v>0.3390442659459652</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.369679384857065</v>
+        <v>2.369679384857037</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.0182675807674</v>
+        <v>1.018267580767372</v>
       </c>
       <c r="C4">
-        <v>0.3289253773971268</v>
+        <v>0.328925377396871</v>
       </c>
       <c r="D4">
-        <v>0.01581053132708821</v>
+        <v>0.01581053132704469</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.028752853646864</v>
+        <v>1.028752853646878</v>
       </c>
       <c r="G4">
-        <v>0.7814209738106186</v>
+        <v>0.7814209738106257</v>
       </c>
       <c r="H4">
         <v>0.5813241591698457</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3079648918686999</v>
+        <v>0.307964891868707</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,34 +529,34 @@
         <v>0.9763361611177288</v>
       </c>
       <c r="C5">
-        <v>0.3155790395126701</v>
+        <v>0.3155790395125564</v>
       </c>
       <c r="D5">
-        <v>0.01603488418273535</v>
+        <v>0.01603488418265986</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9988031541335971</v>
+        <v>0.9988031541336113</v>
       </c>
       <c r="G5">
-        <v>0.7605745463326414</v>
+        <v>0.7605745463326343</v>
       </c>
       <c r="H5">
-        <v>0.5703046075263103</v>
+        <v>0.5703046075262961</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2953229244904279</v>
+        <v>0.2953229244904207</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.022856000719059</v>
+        <v>2.022856000719045</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9693766496676233</v>
+        <v>0.9693766496674812</v>
       </c>
       <c r="C6">
-        <v>0.3133648165297984</v>
+        <v>0.3133648165296847</v>
       </c>
       <c r="D6">
-        <v>0.01607215757423219</v>
+        <v>0.01607215757434677</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0.9938650049345625</v>
       </c>
       <c r="G6">
-        <v>0.7571408926101952</v>
+        <v>0.7571408926102094</v>
       </c>
       <c r="H6">
         <v>0.5684960999776649</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2932249171514272</v>
+        <v>0.2932249171514485</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.006533469367298</v>
+        <v>2.006533469367284</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.017701852942622</v>
+        <v>1.017701852942537</v>
       </c>
       <c r="C7">
-        <v>0.3287452483927495</v>
+        <v>0.3287452483927211</v>
       </c>
       <c r="D7">
-        <v>0.01581355573950294</v>
+        <v>0.01581355573930665</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.028346554773876</v>
+        <v>1.02834655477389</v>
       </c>
       <c r="G7">
-        <v>0.7811379297172891</v>
+        <v>0.7811379297172962</v>
       </c>
       <c r="H7">
         <v>0.5811740960730418</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3077943140150339</v>
+        <v>0.3077943140150481</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.120483409344686</v>
+        <v>2.120483409344729</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>1.231562156320706</v>
       </c>
       <c r="C8">
-        <v>0.3969682661241052</v>
+        <v>0.3969682661239347</v>
       </c>
       <c r="D8">
-        <v>0.01467490100100122</v>
+        <v>0.0146749010010172</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.186065317456993</v>
+        <v>1.186065317456965</v>
       </c>
       <c r="G8">
-        <v>0.891455946882914</v>
+        <v>0.8914559468828998</v>
       </c>
       <c r="H8">
-        <v>0.6404723824202136</v>
+        <v>0.6404723824202065</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3723093005425753</v>
+        <v>0.372309300542554</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.64230683525183</v>
+        <v>2.642306835251802</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.654699327754344</v>
+        <v>1.654699327754258</v>
       </c>
       <c r="C9">
-        <v>0.5327837129439956</v>
+        <v>0.5327837129439104</v>
       </c>
       <c r="D9">
-        <v>0.01244797122690322</v>
+        <v>0.01244797122692187</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.520545095692114</v>
+        <v>1.520545095692128</v>
       </c>
       <c r="G9">
-        <v>1.127777105551786</v>
+        <v>1.127777105551772</v>
       </c>
       <c r="H9">
-        <v>0.7716685704160682</v>
+        <v>0.7716685704160611</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5001621785106707</v>
+        <v>0.500162178510692</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.767446301687741</v>
+        <v>3.767446301687727</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.96941799605716</v>
+        <v>1.969417996057189</v>
       </c>
       <c r="C10">
-        <v>0.634597255250867</v>
+        <v>0.6345972552506964</v>
       </c>
       <c r="D10">
-        <v>0.01081335389666549</v>
+        <v>0.01081335389664773</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.787523496543315</v>
+        <v>1.787523496543301</v>
       </c>
       <c r="G10">
-        <v>1.318208264580363</v>
+        <v>1.318208264580349</v>
       </c>
       <c r="H10">
-        <v>0.8803985090758815</v>
+        <v>0.8803985090758957</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5954525365251229</v>
+        <v>0.5954525365251158</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>2.113761807973617</v>
       </c>
       <c r="C11">
-        <v>0.6815442977520263</v>
+        <v>0.6815442977517421</v>
       </c>
       <c r="D11">
-        <v>0.01006970200707968</v>
+        <v>0.01006970200694468</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.915197639731787</v>
+        <v>1.915197639731844</v>
       </c>
       <c r="G11">
-        <v>1.409758889387533</v>
+        <v>1.409758889387547</v>
       </c>
       <c r="H11">
         <v>0.933440641715066</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6392184644143128</v>
+        <v>0.63921846441432</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.160455241524787</v>
+        <v>5.160455241524829</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>2.168615140378989</v>
       </c>
       <c r="C12">
-        <v>0.6994290664005121</v>
+        <v>0.6994290664004552</v>
       </c>
       <c r="D12">
-        <v>0.009788061796616176</v>
+        <v>0.009788061796598413</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.964605622564903</v>
+        <v>1.964605622564918</v>
       </c>
       <c r="G12">
         <v>1.445266274374575</v>
       </c>
       <c r="H12">
-        <v>0.9541350866535367</v>
+        <v>0.9541350866535083</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6558610992863692</v>
+        <v>0.6558610992864047</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.341921713993372</v>
+        <v>5.341921713993344</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.156792547991529</v>
+        <v>2.156792547991643</v>
       </c>
       <c r="C13">
-        <v>0.6955722444133698</v>
+        <v>0.6955722444135688</v>
       </c>
       <c r="D13">
-        <v>0.009848720292582769</v>
+        <v>0.009848720292461088</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.953914548568633</v>
+        <v>1.953914548568619</v>
       </c>
       <c r="G13">
         <v>1.437579407290741</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6522735828329687</v>
+        <v>0.6522735828329829</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.302498260857035</v>
+        <v>5.302498260857064</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.118270622799969</v>
+        <v>2.118270622800054</v>
       </c>
       <c r="C14">
-        <v>0.6830134513529345</v>
+        <v>0.6830134513528208</v>
       </c>
       <c r="D14">
-        <v>0.01004653223491836</v>
+        <v>0.01004653223483754</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.91924013712125</v>
+        <v>1.919240137121221</v>
       </c>
       <c r="G14">
         <v>1.412662433377037</v>
       </c>
       <c r="H14">
-        <v>0.9351303798250541</v>
+        <v>0.9351303798250399</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6405862220164593</v>
+        <v>0.6405862220164806</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.175233901575325</v>
+        <v>5.175233901575268</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.094700679521111</v>
+        <v>2.094700679521083</v>
       </c>
       <c r="C15">
-        <v>0.675335240930508</v>
+        <v>0.6753352409300248</v>
       </c>
       <c r="D15">
-        <v>0.01016769201792478</v>
+        <v>0.01016769201792744</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.898144672268003</v>
+        <v>1.898144672267989</v>
       </c>
       <c r="G15">
         <v>1.397513718931123</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6334366813638823</v>
+        <v>0.6334366813639036</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.098243965802922</v>
+        <v>5.098243965802965</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.960010618868353</v>
+        <v>1.960010618868552</v>
       </c>
       <c r="C16">
         <v>0.6315432312635494</v>
       </c>
       <c r="D16">
-        <v>0.0108619501984295</v>
+        <v>0.01086195019843395</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.779318340712706</v>
+        <v>1.779318340712678</v>
       </c>
       <c r="G16">
-        <v>1.312334890392194</v>
+        <v>1.312334890392179</v>
       </c>
       <c r="H16">
         <v>0.8770116925022222</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5926015523781132</v>
+        <v>0.592601552378099</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.877702256533581</v>
+        <v>1.877702256533638</v>
       </c>
       <c r="C17">
-        <v>0.6048513081222779</v>
+        <v>0.6048513081223064</v>
       </c>
       <c r="D17">
-        <v>0.0112878256423512</v>
+        <v>0.01128782564214603</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.708124198556945</v>
+        <v>1.708124198556931</v>
       </c>
       <c r="G17">
-        <v>1.261426574850319</v>
+        <v>1.261426574850333</v>
       </c>
       <c r="H17">
-        <v>0.8477407374141634</v>
+        <v>0.8477407374141563</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5676643782749764</v>
+        <v>0.5676643782749835</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.418287470503401</v>
+        <v>4.418287470503373</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.830470081787155</v>
+        <v>1.830470081787183</v>
       </c>
       <c r="C18">
-        <v>0.5895572531105415</v>
+        <v>0.5895572531104278</v>
       </c>
       <c r="D18">
-        <v>0.011532774559738</v>
+        <v>0.01153277455992718</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.667749507494392</v>
+        <v>1.667749507494435</v>
       </c>
       <c r="G18">
-        <v>1.232599594563524</v>
+        <v>1.232599594563538</v>
       </c>
       <c r="H18">
-        <v>0.8312352701972756</v>
+        <v>0.8312352701972827</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5533599626363852</v>
+        <v>0.5533599626363639</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.27665506720588</v>
+        <v>4.276655067205894</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.814496080731772</v>
+        <v>1.814496080731743</v>
       </c>
       <c r="C19">
-        <v>0.5843885023111568</v>
+        <v>0.5843885023114126</v>
       </c>
       <c r="D19">
-        <v>0.01161571007570128</v>
+        <v>0.01161571007587892</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.654173444757291</v>
+        <v>1.654173444757262</v>
       </c>
       <c r="G19">
-        <v>1.222913692232098</v>
+        <v>1.222913692232069</v>
       </c>
       <c r="H19">
-        <v>0.82570100484687</v>
+        <v>0.8257010048468771</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5485231007125435</v>
+        <v>0.548523100712508</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.229232803332181</v>
+        <v>4.229232803332167</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.886452611167556</v>
+        <v>1.886452611167414</v>
       </c>
       <c r="C20">
-        <v>0.6076865460662759</v>
+        <v>0.6076865460663612</v>
       </c>
       <c r="D20">
-        <v>0.01124249097015362</v>
+        <v>0.0112424909703579</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.715642404701939</v>
+        <v>1.715642404701981</v>
       </c>
       <c r="G20">
-        <v>1.266797983836284</v>
+        <v>1.26679798383627</v>
       </c>
       <c r="H20">
         <v>0.8508218674592314</v>
@@ -1137,19 +1137,19 @@
         <v>2.12958002221626</v>
       </c>
       <c r="C21">
-        <v>0.6866992404101779</v>
+        <v>0.6866992404103485</v>
       </c>
       <c r="D21">
-        <v>0.009988431350295812</v>
+        <v>0.009988431350311799</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.929394577232259</v>
+        <v>1.929394577232287</v>
       </c>
       <c r="G21">
-        <v>1.41995719241018</v>
+        <v>1.419957192410166</v>
       </c>
       <c r="H21">
         <v>0.939377599195339</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.644017128619133</v>
+        <v>0.6440171286191259</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.289613026939151</v>
+        <v>2.289613026939264</v>
       </c>
       <c r="C22">
-        <v>0.7389695689545874</v>
+        <v>0.7389695689548432</v>
       </c>
       <c r="D22">
-        <v>0.009168591368486467</v>
+        <v>0.00916859136837811</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>2.075380091351306</v>
       </c>
       <c r="G22">
-        <v>1.52503000755226</v>
+        <v>1.525030007552246</v>
       </c>
       <c r="H22">
         <v>1.000860829729305</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6925939922775228</v>
+        <v>0.6925939922774944</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.755831114968771</v>
+        <v>5.755831114968757</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.20408977087925</v>
+        <v>2.204089770879278</v>
       </c>
       <c r="C23">
-        <v>0.7110087812997961</v>
+        <v>0.7110087812995118</v>
       </c>
       <c r="D23">
-        <v>0.009606193119143569</v>
+        <v>0.009606193119155115</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.996825301740316</v>
+        <v>1.996825301740273</v>
       </c>
       <c r="G23">
-        <v>1.468444286167525</v>
+        <v>1.468444286167511</v>
       </c>
       <c r="H23">
-        <v>0.9676793040373894</v>
+        <v>0.9676793040374037</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6666274402857084</v>
+        <v>0.6666274402856942</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.461273301928202</v>
+        <v>5.461273301928259</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.882496303647315</v>
+        <v>1.882496303647173</v>
       </c>
       <c r="C24">
-        <v>0.6064045758400027</v>
+        <v>0.6064045758399743</v>
       </c>
       <c r="D24">
-        <v>0.01126298643909429</v>
+        <v>0.01126298643910584</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.712241704624915</v>
+        <v>1.712241704624887</v>
       </c>
       <c r="G24">
         <v>1.264368206092129</v>
       </c>
       <c r="H24">
-        <v>0.8494278899211452</v>
+        <v>0.849427889921138</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.432783242442923</v>
+        <v>4.432783242442895</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.539669685098488</v>
+        <v>1.53966968509846</v>
       </c>
       <c r="C25">
-        <v>0.495746260526829</v>
+        <v>0.4957462605265448</v>
       </c>
       <c r="D25">
-        <v>0.0130500253893393</v>
+        <v>0.01305002538922828</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>1.061270146909678</v>
       </c>
       <c r="H25">
-        <v>0.7342742691308928</v>
+        <v>0.7342742691308999</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4653767561850017</v>
+        <v>0.4653767561850302</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.448315450233451</v>
+        <v>3.448315450233466</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.289706107737032</v>
+        <v>1.289706107737118</v>
       </c>
       <c r="C2">
         <v>0.4155632632503909</v>
       </c>
       <c r="D2">
-        <v>0.01436688434304223</v>
+        <v>0.01436688434298627</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.230314173126374</v>
+        <v>1.230314173126388</v>
       </c>
       <c r="G2">
-        <v>0.9225502715253668</v>
+        <v>0.9225502715254095</v>
       </c>
       <c r="H2">
-        <v>0.657444069796675</v>
+        <v>0.6574440697966537</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3898610530856246</v>
+        <v>0.389861053085653</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.789315354970796</v>
+        <v>2.789315354970867</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.121319087337866</v>
+        <v>1.121319087337895</v>
       </c>
       <c r="C3">
-        <v>0.3617669935458707</v>
+        <v>0.361766993545757</v>
       </c>
       <c r="D3">
-        <v>0.0152607199982695</v>
+        <v>0.01526071999842582</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.103748417297481</v>
       </c>
       <c r="G3">
-        <v>0.8337719738675631</v>
+        <v>0.8337719738675418</v>
       </c>
       <c r="H3">
         <v>0.6092736673009114</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3390442659459652</v>
+        <v>0.339044265945958</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.369679384857037</v>
+        <v>2.369679384857065</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.018267580767372</v>
+        <v>1.0182675807674</v>
       </c>
       <c r="C4">
-        <v>0.328925377396871</v>
+        <v>0.3289253773971268</v>
       </c>
       <c r="D4">
-        <v>0.01581053132704469</v>
+        <v>0.01581053132708821</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.028752853646878</v>
+        <v>1.028752853646864</v>
       </c>
       <c r="G4">
-        <v>0.7814209738106257</v>
+        <v>0.7814209738106186</v>
       </c>
       <c r="H4">
         <v>0.5813241591698457</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.307964891868707</v>
+        <v>0.3079648918686999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,34 +529,34 @@
         <v>0.9763361611177288</v>
       </c>
       <c r="C5">
-        <v>0.3155790395125564</v>
+        <v>0.3155790395126701</v>
       </c>
       <c r="D5">
-        <v>0.01603488418265986</v>
+        <v>0.01603488418273535</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9988031541336113</v>
+        <v>0.9988031541335971</v>
       </c>
       <c r="G5">
-        <v>0.7605745463326343</v>
+        <v>0.7605745463326414</v>
       </c>
       <c r="H5">
-        <v>0.5703046075262961</v>
+        <v>0.5703046075263103</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2953229244904207</v>
+        <v>0.2953229244904279</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.022856000719045</v>
+        <v>2.022856000719059</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9693766496674812</v>
+        <v>0.9693766496676233</v>
       </c>
       <c r="C6">
-        <v>0.3133648165296847</v>
+        <v>0.3133648165297984</v>
       </c>
       <c r="D6">
-        <v>0.01607215757434677</v>
+        <v>0.01607215757423219</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0.9938650049345625</v>
       </c>
       <c r="G6">
-        <v>0.7571408926102094</v>
+        <v>0.7571408926101952</v>
       </c>
       <c r="H6">
         <v>0.5684960999776649</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2932249171514485</v>
+        <v>0.2932249171514272</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.006533469367284</v>
+        <v>2.006533469367298</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.017701852942537</v>
+        <v>1.017701852942622</v>
       </c>
       <c r="C7">
-        <v>0.3287452483927211</v>
+        <v>0.3287452483927495</v>
       </c>
       <c r="D7">
-        <v>0.01581355573930665</v>
+        <v>0.01581355573950294</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.02834655477389</v>
+        <v>1.028346554773876</v>
       </c>
       <c r="G7">
-        <v>0.7811379297172962</v>
+        <v>0.7811379297172891</v>
       </c>
       <c r="H7">
         <v>0.5811740960730418</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3077943140150481</v>
+        <v>0.3077943140150339</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.120483409344729</v>
+        <v>2.120483409344686</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>1.231562156320706</v>
       </c>
       <c r="C8">
-        <v>0.3969682661239347</v>
+        <v>0.3969682661241052</v>
       </c>
       <c r="D8">
-        <v>0.0146749010010172</v>
+        <v>0.01467490100100122</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.186065317456965</v>
+        <v>1.186065317456993</v>
       </c>
       <c r="G8">
-        <v>0.8914559468828998</v>
+        <v>0.891455946882914</v>
       </c>
       <c r="H8">
-        <v>0.6404723824202065</v>
+        <v>0.6404723824202136</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.372309300542554</v>
+        <v>0.3723093005425753</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.642306835251802</v>
+        <v>2.64230683525183</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.654699327754258</v>
+        <v>1.654699327754344</v>
       </c>
       <c r="C9">
-        <v>0.5327837129439104</v>
+        <v>0.5327837129439956</v>
       </c>
       <c r="D9">
-        <v>0.01244797122692187</v>
+        <v>0.01244797122690322</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.520545095692128</v>
+        <v>1.520545095692114</v>
       </c>
       <c r="G9">
-        <v>1.127777105551772</v>
+        <v>1.127777105551786</v>
       </c>
       <c r="H9">
-        <v>0.7716685704160611</v>
+        <v>0.7716685704160682</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.500162178510692</v>
+        <v>0.5001621785106707</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.767446301687727</v>
+        <v>3.767446301687741</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.969417996057189</v>
+        <v>1.96941799605716</v>
       </c>
       <c r="C10">
-        <v>0.6345972552506964</v>
+        <v>0.634597255250867</v>
       </c>
       <c r="D10">
-        <v>0.01081335389664773</v>
+        <v>0.01081335389666549</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.787523496543301</v>
+        <v>1.787523496543315</v>
       </c>
       <c r="G10">
-        <v>1.318208264580349</v>
+        <v>1.318208264580363</v>
       </c>
       <c r="H10">
-        <v>0.8803985090758957</v>
+        <v>0.8803985090758815</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5954525365251158</v>
+        <v>0.5954525365251229</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>2.113761807973617</v>
       </c>
       <c r="C11">
-        <v>0.6815442977517421</v>
+        <v>0.6815442977520263</v>
       </c>
       <c r="D11">
-        <v>0.01006970200694468</v>
+        <v>0.01006970200707968</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.915197639731844</v>
+        <v>1.915197639731787</v>
       </c>
       <c r="G11">
-        <v>1.409758889387547</v>
+        <v>1.409758889387533</v>
       </c>
       <c r="H11">
         <v>0.933440641715066</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.63921846441432</v>
+        <v>0.6392184644143128</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.160455241524829</v>
+        <v>5.160455241524787</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>2.168615140378989</v>
       </c>
       <c r="C12">
-        <v>0.6994290664004552</v>
+        <v>0.6994290664005121</v>
       </c>
       <c r="D12">
-        <v>0.009788061796598413</v>
+        <v>0.009788061796616176</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.964605622564918</v>
+        <v>1.964605622564903</v>
       </c>
       <c r="G12">
         <v>1.445266274374575</v>
       </c>
       <c r="H12">
-        <v>0.9541350866535083</v>
+        <v>0.9541350866535367</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6558610992864047</v>
+        <v>0.6558610992863692</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.341921713993344</v>
+        <v>5.341921713993372</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.156792547991643</v>
+        <v>2.156792547991529</v>
       </c>
       <c r="C13">
-        <v>0.6955722444135688</v>
+        <v>0.6955722444133698</v>
       </c>
       <c r="D13">
-        <v>0.009848720292461088</v>
+        <v>0.009848720292582769</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.953914548568619</v>
+        <v>1.953914548568633</v>
       </c>
       <c r="G13">
         <v>1.437579407290741</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6522735828329829</v>
+        <v>0.6522735828329687</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.302498260857064</v>
+        <v>5.302498260857035</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.118270622800054</v>
+        <v>2.118270622799969</v>
       </c>
       <c r="C14">
-        <v>0.6830134513528208</v>
+        <v>0.6830134513529345</v>
       </c>
       <c r="D14">
-        <v>0.01004653223483754</v>
+        <v>0.01004653223491836</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.919240137121221</v>
+        <v>1.91924013712125</v>
       </c>
       <c r="G14">
         <v>1.412662433377037</v>
       </c>
       <c r="H14">
-        <v>0.9351303798250399</v>
+        <v>0.9351303798250541</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6405862220164806</v>
+        <v>0.6405862220164593</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.175233901575268</v>
+        <v>5.175233901575325</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.094700679521083</v>
+        <v>2.094700679521111</v>
       </c>
       <c r="C15">
-        <v>0.6753352409300248</v>
+        <v>0.675335240930508</v>
       </c>
       <c r="D15">
-        <v>0.01016769201792744</v>
+        <v>0.01016769201792478</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.898144672267989</v>
+        <v>1.898144672268003</v>
       </c>
       <c r="G15">
         <v>1.397513718931123</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6334366813639036</v>
+        <v>0.6334366813638823</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.098243965802965</v>
+        <v>5.098243965802922</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.960010618868552</v>
+        <v>1.960010618868353</v>
       </c>
       <c r="C16">
         <v>0.6315432312635494</v>
       </c>
       <c r="D16">
-        <v>0.01086195019843395</v>
+        <v>0.0108619501984295</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.779318340712678</v>
+        <v>1.779318340712706</v>
       </c>
       <c r="G16">
-        <v>1.312334890392179</v>
+        <v>1.312334890392194</v>
       </c>
       <c r="H16">
         <v>0.8770116925022222</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.592601552378099</v>
+        <v>0.5926015523781132</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.877702256533638</v>
+        <v>1.877702256533581</v>
       </c>
       <c r="C17">
-        <v>0.6048513081223064</v>
+        <v>0.6048513081222779</v>
       </c>
       <c r="D17">
-        <v>0.01128782564214603</v>
+        <v>0.0112878256423512</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.708124198556931</v>
+        <v>1.708124198556945</v>
       </c>
       <c r="G17">
-        <v>1.261426574850333</v>
+        <v>1.261426574850319</v>
       </c>
       <c r="H17">
-        <v>0.8477407374141563</v>
+        <v>0.8477407374141634</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5676643782749835</v>
+        <v>0.5676643782749764</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.418287470503373</v>
+        <v>4.418287470503401</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.830470081787183</v>
+        <v>1.830470081787155</v>
       </c>
       <c r="C18">
-        <v>0.5895572531104278</v>
+        <v>0.5895572531105415</v>
       </c>
       <c r="D18">
-        <v>0.01153277455992718</v>
+        <v>0.011532774559738</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.667749507494435</v>
+        <v>1.667749507494392</v>
       </c>
       <c r="G18">
-        <v>1.232599594563538</v>
+        <v>1.232599594563524</v>
       </c>
       <c r="H18">
-        <v>0.8312352701972827</v>
+        <v>0.8312352701972756</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5533599626363639</v>
+        <v>0.5533599626363852</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.276655067205894</v>
+        <v>4.27665506720588</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.814496080731743</v>
+        <v>1.814496080731772</v>
       </c>
       <c r="C19">
-        <v>0.5843885023114126</v>
+        <v>0.5843885023111568</v>
       </c>
       <c r="D19">
-        <v>0.01161571007587892</v>
+        <v>0.01161571007570128</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.654173444757262</v>
+        <v>1.654173444757291</v>
       </c>
       <c r="G19">
-        <v>1.222913692232069</v>
+        <v>1.222913692232098</v>
       </c>
       <c r="H19">
-        <v>0.8257010048468771</v>
+        <v>0.82570100484687</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.548523100712508</v>
+        <v>0.5485231007125435</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.229232803332167</v>
+        <v>4.229232803332181</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.886452611167414</v>
+        <v>1.886452611167556</v>
       </c>
       <c r="C20">
-        <v>0.6076865460663612</v>
+        <v>0.6076865460662759</v>
       </c>
       <c r="D20">
-        <v>0.0112424909703579</v>
+        <v>0.01124249097015362</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.715642404701981</v>
+        <v>1.715642404701939</v>
       </c>
       <c r="G20">
-        <v>1.26679798383627</v>
+        <v>1.266797983836284</v>
       </c>
       <c r="H20">
         <v>0.8508218674592314</v>
@@ -1137,19 +1137,19 @@
         <v>2.12958002221626</v>
       </c>
       <c r="C21">
-        <v>0.6866992404103485</v>
+        <v>0.6866992404101779</v>
       </c>
       <c r="D21">
-        <v>0.009988431350311799</v>
+        <v>0.009988431350295812</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.929394577232287</v>
+        <v>1.929394577232259</v>
       </c>
       <c r="G21">
-        <v>1.419957192410166</v>
+        <v>1.41995719241018</v>
       </c>
       <c r="H21">
         <v>0.939377599195339</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6440171286191259</v>
+        <v>0.644017128619133</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.289613026939264</v>
+        <v>2.289613026939151</v>
       </c>
       <c r="C22">
-        <v>0.7389695689548432</v>
+        <v>0.7389695689545874</v>
       </c>
       <c r="D22">
-        <v>0.00916859136837811</v>
+        <v>0.009168591368486467</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>2.075380091351306</v>
       </c>
       <c r="G22">
-        <v>1.525030007552246</v>
+        <v>1.52503000755226</v>
       </c>
       <c r="H22">
         <v>1.000860829729305</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6925939922774944</v>
+        <v>0.6925939922775228</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.755831114968757</v>
+        <v>5.755831114968771</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.204089770879278</v>
+        <v>2.20408977087925</v>
       </c>
       <c r="C23">
-        <v>0.7110087812995118</v>
+        <v>0.7110087812997961</v>
       </c>
       <c r="D23">
-        <v>0.009606193119155115</v>
+        <v>0.009606193119143569</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.996825301740273</v>
+        <v>1.996825301740316</v>
       </c>
       <c r="G23">
-        <v>1.468444286167511</v>
+        <v>1.468444286167525</v>
       </c>
       <c r="H23">
-        <v>0.9676793040374037</v>
+        <v>0.9676793040373894</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6666274402856942</v>
+        <v>0.6666274402857084</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.461273301928259</v>
+        <v>5.461273301928202</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.882496303647173</v>
+        <v>1.882496303647315</v>
       </c>
       <c r="C24">
-        <v>0.6064045758399743</v>
+        <v>0.6064045758400027</v>
       </c>
       <c r="D24">
-        <v>0.01126298643910584</v>
+        <v>0.01126298643909429</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.712241704624887</v>
+        <v>1.712241704624915</v>
       </c>
       <c r="G24">
         <v>1.264368206092129</v>
       </c>
       <c r="H24">
-        <v>0.849427889921138</v>
+        <v>0.8494278899211452</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.432783242442895</v>
+        <v>4.432783242442923</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.53966968509846</v>
+        <v>1.539669685098488</v>
       </c>
       <c r="C25">
-        <v>0.4957462605265448</v>
+        <v>0.495746260526829</v>
       </c>
       <c r="D25">
-        <v>0.01305002538922828</v>
+        <v>0.0130500253893393</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>1.061270146909678</v>
       </c>
       <c r="H25">
-        <v>0.7342742691308999</v>
+        <v>0.7342742691308928</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4653767561850302</v>
+        <v>0.4653767561850017</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.448315450233466</v>
+        <v>3.448315450233451</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.289706107737118</v>
+        <v>1.28969806894969</v>
       </c>
       <c r="C2">
-        <v>0.4155632632503909</v>
+        <v>0.4153342731655698</v>
       </c>
       <c r="D2">
-        <v>0.01436688434298627</v>
+        <v>0.01437535203819174</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.230314173126388</v>
+        <v>1.228606101442679</v>
       </c>
       <c r="G2">
-        <v>0.9225502715254095</v>
+        <v>0.2902226220820978</v>
       </c>
       <c r="H2">
-        <v>0.6574440697966537</v>
+        <v>0.6348091226741275</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6563604414660063</v>
       </c>
       <c r="J2">
-        <v>0.389861053085653</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3897956468606409</v>
       </c>
       <c r="L2">
-        <v>2.789315354970867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.789295094592489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.121319087337895</v>
+        <v>1.12132883788999</v>
       </c>
       <c r="C3">
-        <v>0.361766993545757</v>
+        <v>0.3615765026527242</v>
       </c>
       <c r="D3">
-        <v>0.01526071999842582</v>
+        <v>0.01526534191233608</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.103748417297481</v>
+        <v>1.10223177543736</v>
       </c>
       <c r="G3">
-        <v>0.8337719738675418</v>
+        <v>0.258348314349135</v>
       </c>
       <c r="H3">
-        <v>0.6092736673009114</v>
+        <v>0.5781665546775514</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6083048892650282</v>
       </c>
       <c r="J3">
-        <v>0.339044265945958</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3389931218230089</v>
       </c>
       <c r="L3">
-        <v>2.369679384857065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.369670342753253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.0182675807674</v>
+        <v>1.018286765504797</v>
       </c>
       <c r="C4">
-        <v>0.3289253773971268</v>
+        <v>0.3287578257013024</v>
       </c>
       <c r="D4">
-        <v>0.01581053132708821</v>
+        <v>0.01581268896327437</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.028752853646864</v>
+        <v>1.027350954583881</v>
       </c>
       <c r="G4">
-        <v>0.7814209738106186</v>
+        <v>0.2394711690401223</v>
       </c>
       <c r="H4">
-        <v>0.5813241591698457</v>
+        <v>0.5448495420802359</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.5804243687427615</v>
       </c>
       <c r="J4">
-        <v>0.3079648918686999</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3079220003226837</v>
       </c>
       <c r="L4">
-        <v>2.121825856561699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.121822024856826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9763361611177288</v>
+        <v>0.9763588614984826</v>
       </c>
       <c r="C5">
-        <v>0.3155790395126701</v>
+        <v>0.3154206872811471</v>
       </c>
       <c r="D5">
-        <v>0.01603488418273535</v>
+        <v>0.01603601356964557</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9988031541335971</v>
+        <v>0.9974474162430624</v>
       </c>
       <c r="G5">
-        <v>0.7605745463326414</v>
+        <v>0.2319338024211604</v>
       </c>
       <c r="H5">
-        <v>0.5703046075263103</v>
+        <v>0.5316036125067995</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5694326045042999</v>
       </c>
       <c r="J5">
-        <v>0.2953229244904279</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.295283286028706</v>
       </c>
       <c r="L5">
-        <v>2.022856000719059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.022853963062943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9693766496676233</v>
+        <v>0.9693999152113122</v>
       </c>
       <c r="C6">
-        <v>0.3133648165297984</v>
+        <v>0.3132079836506136</v>
       </c>
       <c r="D6">
-        <v>0.01607215757423219</v>
+        <v>0.01607311481915819</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9938650049345625</v>
+        <v>0.9925168988526565</v>
       </c>
       <c r="G6">
-        <v>0.7571408926101952</v>
+        <v>0.2306910753861757</v>
       </c>
       <c r="H6">
-        <v>0.5684960999776649</v>
+        <v>0.5294231252391697</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5676286929756174</v>
       </c>
       <c r="J6">
-        <v>0.2932249171514272</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2931858126905311</v>
       </c>
       <c r="L6">
-        <v>2.006533469367298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.006531712038395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.017701852942622</v>
+        <v>1.01772108636743</v>
       </c>
       <c r="C7">
-        <v>0.3287452483927495</v>
+        <v>0.3285778213310948</v>
       </c>
       <c r="D7">
-        <v>0.01581355573950294</v>
+        <v>0.01581569960329698</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.028346554773876</v>
+        <v>1.026945280544624</v>
       </c>
       <c r="G7">
-        <v>0.7811379297172891</v>
+        <v>0.2393689130889172</v>
       </c>
       <c r="H7">
-        <v>0.5811740960730418</v>
+        <v>0.5446696083451599</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5802746816414199</v>
       </c>
       <c r="J7">
-        <v>0.3077943140150339</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3077514667649552</v>
       </c>
       <c r="L7">
-        <v>2.120483409344686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.120479603061071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.231562156320706</v>
+        <v>1.231560588849447</v>
       </c>
       <c r="C8">
-        <v>0.3969682661241052</v>
+        <v>0.3967527130941733</v>
       </c>
       <c r="D8">
-        <v>0.01467490100100122</v>
+        <v>0.01468206522948723</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.186065317456993</v>
+        <v>1.184423898569847</v>
       </c>
       <c r="G8">
-        <v>0.891455946882914</v>
+        <v>0.2790761721526707</v>
       </c>
       <c r="H8">
-        <v>0.6404723824202136</v>
+        <v>0.6149522377009191</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6394287102166558</v>
       </c>
       <c r="J8">
-        <v>0.3723093005425753</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3722489272584895</v>
       </c>
       <c r="L8">
-        <v>2.64230683525183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.642290854299873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.654699327754344</v>
+        <v>1.654642885103982</v>
       </c>
       <c r="C9">
-        <v>0.5327837129439956</v>
+        <v>0.532466841352317</v>
       </c>
       <c r="D9">
-        <v>0.01244797122690322</v>
+        <v>0.01246406524853771</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.520545095692114</v>
+        <v>1.518405046244226</v>
       </c>
       <c r="G9">
-        <v>1.127777105551786</v>
+        <v>0.3634301875247843</v>
       </c>
       <c r="H9">
-        <v>0.7716685704160682</v>
+        <v>0.7662395094761933</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.7703267443194477</v>
       </c>
       <c r="J9">
-        <v>0.5001621785106707</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5000625824856257</v>
       </c>
       <c r="L9">
-        <v>3.767446301687741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.767387363185293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.96941799605716</v>
+        <v>1.969309090825021</v>
       </c>
       <c r="C10">
-        <v>0.634597255250867</v>
+        <v>0.6341994838960829</v>
       </c>
       <c r="D10">
-        <v>0.01081335389666549</v>
+        <v>0.01083528237143483</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.787523496543315</v>
+        <v>1.784991005723128</v>
       </c>
       <c r="G10">
-        <v>1.318208264580363</v>
+        <v>0.430953452468998</v>
       </c>
       <c r="H10">
-        <v>0.8803985090758815</v>
+        <v>0.8886136807506659</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.8788230967271318</v>
       </c>
       <c r="J10">
-        <v>0.5954525365251229</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5953198200904382</v>
       </c>
       <c r="L10">
-        <v>4.699590291461661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.699476100281018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.113761807973617</v>
+        <v>2.113625478279715</v>
       </c>
       <c r="C11">
-        <v>0.6815442977520263</v>
+        <v>0.6811077240841428</v>
       </c>
       <c r="D11">
-        <v>0.01006970200707968</v>
+        <v>0.0100940763318027</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.915197639731787</v>
+        <v>1.91247831785266</v>
       </c>
       <c r="G11">
-        <v>1.409758889387533</v>
+        <v>0.4633147202197563</v>
       </c>
       <c r="H11">
-        <v>0.933440641715066</v>
+        <v>0.9475494021774011</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.9317543012007548</v>
       </c>
       <c r="J11">
-        <v>0.6392184644143128</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6390693941308143</v>
       </c>
       <c r="L11">
-        <v>5.160455241524787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.160306115080914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.168615140378989</v>
+        <v>2.168467825378315</v>
       </c>
       <c r="C12">
-        <v>0.6994290664005121</v>
+        <v>0.6989774519789194</v>
       </c>
       <c r="D12">
-        <v>0.009788061796616176</v>
+        <v>0.009813326611759265</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.964605622564903</v>
+        <v>1.961814075029224</v>
       </c>
       <c r="G12">
-        <v>1.445266274374575</v>
+        <v>0.475851156141502</v>
       </c>
       <c r="H12">
-        <v>0.9541350866535367</v>
+        <v>0.9704223845887157</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.9524059055986527</v>
       </c>
       <c r="J12">
-        <v>0.6558610992863692</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6557056167332647</v>
       </c>
       <c r="L12">
-        <v>5.341921713993372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.341757301493658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.156792547991529</v>
+        <v>2.156647627092838</v>
       </c>
       <c r="C13">
-        <v>0.6955722444133698</v>
+        <v>0.6951238857828343</v>
       </c>
       <c r="D13">
-        <v>0.009848720292582769</v>
+        <v>0.009873795021936971</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.953914548568633</v>
+        <v>1.951138627050724</v>
       </c>
       <c r="G13">
-        <v>1.437579407290741</v>
+        <v>0.4731378417635455</v>
       </c>
       <c r="H13">
-        <v>0.9496493868552704</v>
+        <v>0.9654700228526849</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9479294724416434</v>
       </c>
       <c r="J13">
-        <v>0.6522735828329687</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.652119491633627</v>
       </c>
       <c r="L13">
-        <v>5.302498260857035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.302337245826195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.118270622799969</v>
+        <v>2.118133401913099</v>
       </c>
       <c r="C14">
-        <v>0.6830134513529345</v>
+        <v>0.6825756476071945</v>
       </c>
       <c r="D14">
-        <v>0.01004653223491836</v>
+        <v>0.01007098057518174</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.91924013712125</v>
+        <v>1.916514904655727</v>
       </c>
       <c r="G14">
-        <v>1.412662433377037</v>
+        <v>0.4643401549037662</v>
       </c>
       <c r="H14">
-        <v>0.9351303798250541</v>
+        <v>0.9494194925712662</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.9334405326008692</v>
       </c>
       <c r="J14">
-        <v>0.6405862220164593</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6404366288028882</v>
       </c>
       <c r="L14">
-        <v>5.175233901575325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.175083563626288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.094700679521111</v>
+        <v>2.094568094134559</v>
       </c>
       <c r="C15">
-        <v>0.675335240930508</v>
+        <v>0.6749038552111131</v>
       </c>
       <c r="D15">
-        <v>0.01016769201792478</v>
+        <v>0.01019175182917831</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.898144672268003</v>
+        <v>1.895450286441985</v>
       </c>
       <c r="G15">
-        <v>1.397513718931123</v>
+        <v>0.4589895464345659</v>
       </c>
       <c r="H15">
-        <v>0.9263194470088365</v>
+        <v>0.93966323984219</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.9246479025913885</v>
       </c>
       <c r="J15">
-        <v>0.6334366813638823</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6332898136213032</v>
       </c>
       <c r="L15">
-        <v>5.098243965802922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.098099875388655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.960010618868353</v>
+        <v>1.959903426950234</v>
       </c>
       <c r="C16">
-        <v>0.6315432312635494</v>
+        <v>0.6311479506092326</v>
       </c>
       <c r="D16">
-        <v>0.0108619501984295</v>
+        <v>0.01088371418390111</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.779318340712706</v>
+        <v>1.776797869942413</v>
       </c>
       <c r="G16">
-        <v>1.312334890392194</v>
+        <v>0.4288753342488008</v>
       </c>
       <c r="H16">
-        <v>0.8770116925022222</v>
+        <v>0.8848347532626093</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8754434225759908</v>
       </c>
       <c r="J16">
-        <v>0.5926015523781132</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5924698759762919</v>
       </c>
       <c r="L16">
-        <v>4.6703419716344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.670229817695258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.877702256533581</v>
+        <v>1.87760967149336</v>
       </c>
       <c r="C17">
-        <v>0.6048513081222779</v>
+        <v>0.6044776250026302</v>
       </c>
       <c r="D17">
-        <v>0.0112878256423512</v>
+        <v>0.01130812424631245</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.708124198556945</v>
+        <v>1.70570811038246</v>
       </c>
       <c r="G17">
-        <v>1.261426574850319</v>
+        <v>0.4108519734581222</v>
       </c>
       <c r="H17">
-        <v>0.8477407374141634</v>
+        <v>0.8520916471348556</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.8462345231424493</v>
       </c>
       <c r="J17">
-        <v>0.5676643782749764</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5675416686126269</v>
       </c>
       <c r="L17">
-        <v>4.418287470503401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.418192025208356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.830470081787155</v>
+        <v>1.830385569164747</v>
       </c>
       <c r="C18">
-        <v>0.5895572531105415</v>
+        <v>0.5891958080923985</v>
       </c>
       <c r="D18">
-        <v>0.011532774559738</v>
+        <v>0.01155221113157534</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.667749507494392</v>
+        <v>1.665392695630104</v>
       </c>
       <c r="G18">
-        <v>1.232599594563524</v>
+        <v>0.400637024242485</v>
       </c>
       <c r="H18">
-        <v>0.8312352701972756</v>
+        <v>0.8335602087666985</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.8297643209663974</v>
       </c>
       <c r="J18">
-        <v>0.5533599626363852</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5532422915647004</v>
       </c>
       <c r="L18">
-        <v>4.27665506720588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.276568361461358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.814496080731772</v>
+        <v>1.814414247297066</v>
       </c>
       <c r="C19">
-        <v>0.5843885023111568</v>
+        <v>0.5840311709200705</v>
       </c>
       <c r="D19">
-        <v>0.01161571007570128</v>
+        <v>0.01163485163430167</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.654173444757291</v>
+        <v>1.651836579555663</v>
       </c>
       <c r="G19">
-        <v>1.222913692232098</v>
+        <v>0.3972032196352728</v>
       </c>
       <c r="H19">
-        <v>0.82570100484687</v>
+        <v>0.827335237196408</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.824241926639445</v>
       </c>
       <c r="J19">
-        <v>0.5485231007125435</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5484071161804351</v>
       </c>
       <c r="L19">
-        <v>4.229232803332181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.229148922244434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.886452611167556</v>
+        <v>1.886358505865076</v>
       </c>
       <c r="C20">
-        <v>0.6076865460662759</v>
+        <v>0.607310583318764</v>
       </c>
       <c r="D20">
-        <v>0.01124249097015362</v>
+        <v>0.01126294758884594</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.715642404701939</v>
+        <v>1.713215285500766</v>
       </c>
       <c r="G20">
-        <v>1.266797983836284</v>
+        <v>0.4127546001414544</v>
       </c>
       <c r="H20">
-        <v>0.8508218674592314</v>
+        <v>0.8555454347327043</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.8493090925822386</v>
       </c>
       <c r="J20">
-        <v>0.570314898903348</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5701912472495749</v>
       </c>
       <c r="L20">
-        <v>4.444762854567799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.444665724491259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.12958002221626</v>
+        <v>2.129440556698228</v>
       </c>
       <c r="C21">
-        <v>0.6866992404101779</v>
+        <v>0.6862583463846761</v>
       </c>
       <c r="D21">
-        <v>0.009988431350295812</v>
+        <v>0.01001306469913832</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.929394577232259</v>
+        <v>1.926654498838346</v>
       </c>
       <c r="G21">
-        <v>1.41995719241018</v>
+        <v>0.466916186532444</v>
       </c>
       <c r="H21">
-        <v>0.939377599195339</v>
+        <v>0.9541180798711508</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.9376789446636167</v>
       </c>
       <c r="J21">
-        <v>0.644017128619133</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6438662204904944</v>
       </c>
       <c r="L21">
-        <v>5.212410027822258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.212256616350729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.289613026939151</v>
+        <v>2.289440368388512</v>
       </c>
       <c r="C22">
-        <v>0.7389695689545874</v>
+        <v>0.7384841797864112</v>
       </c>
       <c r="D22">
-        <v>0.009168591368486467</v>
+        <v>0.009195742365824877</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.075380091351306</v>
+        <v>2.072426681424957</v>
       </c>
       <c r="G22">
-        <v>1.52503000755226</v>
+        <v>0.5039860735243309</v>
       </c>
       <c r="H22">
-        <v>1.000860829729305</v>
+        <v>1.021831830951271</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9990357189576144</v>
       </c>
       <c r="J22">
-        <v>0.6925939922775228</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6924239720257077</v>
       </c>
       <c r="L22">
-        <v>5.755831114968771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.75562835496271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.20408977087925</v>
+        <v>2.203935184692142</v>
       </c>
       <c r="C23">
-        <v>0.7110087812997961</v>
+        <v>0.7105473507909608</v>
       </c>
       <c r="D23">
-        <v>0.009606193119143569</v>
+        <v>0.009632022172501031</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.996825301740316</v>
+        <v>1.99398666840095</v>
       </c>
       <c r="G23">
-        <v>1.468444286167525</v>
+        <v>0.4840304200228189</v>
       </c>
       <c r="H23">
-        <v>0.9676793040373894</v>
+        <v>0.9853572917885458</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.965922206070303</v>
       </c>
       <c r="J23">
-        <v>0.6666274402857084</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6664677519578248</v>
       </c>
       <c r="L23">
-        <v>5.461273301928202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.461098339153708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.882496303647315</v>
+        <v>1.882402886662049</v>
       </c>
       <c r="C24">
-        <v>0.6064045758400027</v>
+        <v>0.6060296442643676</v>
       </c>
       <c r="D24">
-        <v>0.01126298643909429</v>
+        <v>0.0112833716799452</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.712241704624915</v>
+        <v>1.709819574818752</v>
       </c>
       <c r="G24">
-        <v>1.264368206092129</v>
+        <v>0.4118939682872735</v>
       </c>
       <c r="H24">
-        <v>0.8494278899211452</v>
+        <v>0.8539830709065086</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.8479180823640462</v>
       </c>
       <c r="J24">
-        <v>0.5691164986493007</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5689932732302196</v>
       </c>
       <c r="L24">
-        <v>4.432783242442923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.432686876711045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.539669685098488</v>
+        <v>1.539629937630025</v>
       </c>
       <c r="C25">
-        <v>0.495746260526829</v>
+        <v>0.4954577534701343</v>
       </c>
       <c r="D25">
-        <v>0.0130500253893393</v>
+        <v>0.01306381694318048</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.426806821975291</v>
+        <v>1.424805486285578</v>
       </c>
       <c r="G25">
-        <v>1.061270146909678</v>
+        <v>0.3397653862172803</v>
       </c>
       <c r="H25">
-        <v>0.7342742691308928</v>
+        <v>0.7235862950472978</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7330152194095021</v>
       </c>
       <c r="J25">
-        <v>0.4653767561850017</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4652884193142199</v>
       </c>
       <c r="L25">
-        <v>3.448315450233451</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.44827115756533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.28969806894969</v>
+        <v>1.758995825015091</v>
       </c>
       <c r="C2">
-        <v>0.4153342731655698</v>
+        <v>0.343536848463458</v>
       </c>
       <c r="D2">
-        <v>0.01437535203819174</v>
+        <v>0.0226854291080727</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.228606101442679</v>
+        <v>2.525569599190817</v>
       </c>
       <c r="G2">
-        <v>0.2902226220820978</v>
+        <v>0.0008170943496250227</v>
       </c>
       <c r="H2">
-        <v>0.6348091226741275</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6563604414660063</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1695646718261941</v>
       </c>
       <c r="K2">
-        <v>0.3897956468606409</v>
+        <v>0.4644188091147825</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.789295094592489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5296320462149637</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.748531953379498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.12132883788999</v>
+        <v>1.521312359756706</v>
       </c>
       <c r="C3">
-        <v>0.3615765026527242</v>
+        <v>0.296378836455176</v>
       </c>
       <c r="D3">
-        <v>0.01526534191233608</v>
+        <v>0.0209107997078668</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.10223177543736</v>
+        <v>2.331276615474508</v>
       </c>
       <c r="G3">
-        <v>0.258348314349135</v>
+        <v>0.0008248410810939054</v>
       </c>
       <c r="H3">
-        <v>0.5781665546775514</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6083048892650282</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1581531386318886</v>
       </c>
       <c r="K3">
-        <v>0.3389931218230089</v>
+        <v>0.4010752784692997</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.369670342753253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4617516762730318</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.614054000141252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.018286765504797</v>
+        <v>1.377426292173226</v>
       </c>
       <c r="C4">
-        <v>0.3287578257013024</v>
+        <v>0.2677705930557863</v>
       </c>
       <c r="D4">
-        <v>0.01581268896327437</v>
+        <v>0.01984099410834617</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.027350954583881</v>
+        <v>2.216334188299442</v>
       </c>
       <c r="G4">
-        <v>0.2394711690401223</v>
+        <v>0.0008297268888684841</v>
       </c>
       <c r="H4">
-        <v>0.5448495420802359</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5804243687427615</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.151419266014166</v>
       </c>
       <c r="K4">
-        <v>0.3079220003226837</v>
+        <v>0.3627082565411683</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.121822024856826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4207765319662897</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.534566573000035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9763588614984826</v>
+        <v>1.319238077386672</v>
       </c>
       <c r="C5">
-        <v>0.3154206872811471</v>
+        <v>0.2561854447048404</v>
       </c>
       <c r="D5">
-        <v>0.01603601356964557</v>
+        <v>0.01940987584723075</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9974474162430624</v>
+        <v>2.170491927109012</v>
       </c>
       <c r="G5">
-        <v>0.2319338024211604</v>
+        <v>0.0008317517675748736</v>
       </c>
       <c r="H5">
-        <v>0.5316036125067995</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5694326045042999</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1487382908008499</v>
       </c>
       <c r="K5">
-        <v>0.295283286028706</v>
+        <v>0.3471870208882137</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.022853963062943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4042349656552275</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.502879907000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9693999152113122</v>
+        <v>1.309601008014084</v>
       </c>
       <c r="C6">
-        <v>0.3132079836506136</v>
+        <v>0.2542657497213554</v>
       </c>
       <c r="D6">
-        <v>0.01607311481915819</v>
+        <v>0.01933857714861276</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9925168988526565</v>
+        <v>2.162937411839351</v>
       </c>
       <c r="G6">
-        <v>0.2306910753861757</v>
+        <v>0.0008320900809468532</v>
       </c>
       <c r="H6">
-        <v>0.5294231252391697</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5676286929756174</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1482967776408159</v>
       </c>
       <c r="K6">
-        <v>0.2931858126905311</v>
+        <v>0.3446160776394933</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.006531712038395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.401497104513787</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.497659000250664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.01772108636743</v>
+        <v>1.37663982555361</v>
       </c>
       <c r="C7">
-        <v>0.3285778213310948</v>
+        <v>0.2676140743861595</v>
       </c>
       <c r="D7">
-        <v>0.01581569960329698</v>
+        <v>0.01983516049583045</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.026945280544624</v>
+        <v>2.215712026928813</v>
       </c>
       <c r="G7">
-        <v>0.2393689130889172</v>
+        <v>0.0008297540581599204</v>
       </c>
       <c r="H7">
-        <v>0.5446696083451599</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5802746816414199</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.151382860762233</v>
       </c>
       <c r="K7">
-        <v>0.3077514667649552</v>
+        <v>0.3624984951986363</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.120479603061071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4205528407216761</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.534136469274756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.231560588849447</v>
+        <v>1.676572819705996</v>
       </c>
       <c r="C8">
-        <v>0.3967527130941733</v>
+        <v>0.3271957447974501</v>
       </c>
       <c r="D8">
-        <v>0.01468206522948723</v>
+        <v>0.02206932542354778</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.184423898569847</v>
+        <v>2.457612717024901</v>
       </c>
       <c r="G8">
-        <v>0.2790761721526707</v>
+        <v>0.0008197394425704044</v>
       </c>
       <c r="H8">
-        <v>0.6149522377009191</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6394287102166558</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1655699093081111</v>
       </c>
       <c r="K8">
-        <v>0.3722489272584895</v>
+        <v>0.4424570157191212</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.642290854299873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5060677720083788</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.701480258532015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.654642885103982</v>
+        <v>2.284506068717576</v>
       </c>
       <c r="C9">
-        <v>0.532466841352317</v>
+        <v>0.447506845891894</v>
       </c>
       <c r="D9">
-        <v>0.01246406524853771</v>
+        <v>0.02661599213127985</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.518405046244226</v>
+        <v>2.971353523232551</v>
       </c>
       <c r="G9">
-        <v>0.3634301875247843</v>
+        <v>0.0008010592412600574</v>
       </c>
       <c r="H9">
-        <v>0.7662395094761933</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7703267443194477</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1958276653955835</v>
       </c>
       <c r="K9">
-        <v>0.5000625824856257</v>
+        <v>0.6043647323567853</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.767387363185293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6803853688627939</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.057576481839106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.969309090825021</v>
+        <v>2.748628723556692</v>
       </c>
       <c r="C10">
-        <v>0.6341994838960829</v>
+        <v>0.5391426009495319</v>
       </c>
       <c r="D10">
-        <v>0.01083528237143483</v>
+        <v>0.03007106547170935</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.784991005723128</v>
+        <v>3.380280405651064</v>
       </c>
       <c r="G10">
-        <v>0.430953452468998</v>
+        <v>0.0007878152963942435</v>
       </c>
       <c r="H10">
-        <v>0.8886136807506659</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8788230967271318</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2199650966367628</v>
       </c>
       <c r="K10">
-        <v>0.5953198200904382</v>
+        <v>0.727891827233023</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.699476100281018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.8141141618989494</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.341619547152519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.113625478279715</v>
+        <v>2.964950717394174</v>
       </c>
       <c r="C11">
-        <v>0.6811077240841428</v>
+        <v>0.5818246979940227</v>
       </c>
       <c r="D11">
-        <v>0.0100940763318027</v>
+        <v>0.03167146798632103</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.91247831785266</v>
+        <v>3.57505229912374</v>
       </c>
       <c r="G11">
-        <v>0.4633147202197563</v>
+        <v>0.0007818683735416969</v>
       </c>
       <c r="H11">
-        <v>0.9475494021774011</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9317543012007548</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2314671171504727</v>
       </c>
       <c r="K11">
-        <v>0.6390693941308143</v>
+        <v>0.7854541073067836</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.160306115080914</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8765931684327981</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.47707956167622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.168467825378315</v>
+        <v>3.047744435615073</v>
       </c>
       <c r="C12">
-        <v>0.6989774519789194</v>
+        <v>0.5981584356560461</v>
       </c>
       <c r="D12">
-        <v>0.009813326611759265</v>
+        <v>0.03228197771633035</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.961814075029224</v>
+        <v>3.650246822988663</v>
       </c>
       <c r="G12">
-        <v>0.475851156141502</v>
+        <v>0.0007796251468436409</v>
       </c>
       <c r="H12">
-        <v>0.9704223845887157</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9524059055986527</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2359078516259245</v>
       </c>
       <c r="K12">
-        <v>0.6557056167332647</v>
+        <v>0.8074839238528142</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.341757301493658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.9005282576245293</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.529404018074075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.156647627092838</v>
+        <v>3.029872048005927</v>
       </c>
       <c r="C13">
-        <v>0.6951238857828343</v>
+        <v>0.5946325901970226</v>
       </c>
       <c r="D13">
-        <v>0.009873795021936971</v>
+        <v>0.03215028852848434</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.951138627050724</v>
+        <v>3.633985236258866</v>
       </c>
       <c r="G13">
-        <v>0.4731378417635455</v>
+        <v>0.0007801079190544735</v>
       </c>
       <c r="H13">
-        <v>0.9654700228526849</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9479294724416434</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2349474972323833</v>
       </c>
       <c r="K13">
-        <v>0.652119491633627</v>
+        <v>0.8027284689949852</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.302337245826195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.895360473450971</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.518087008267969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.118133401913099</v>
+        <v>2.971743815871321</v>
       </c>
       <c r="C14">
-        <v>0.6825756476071945</v>
+        <v>0.5831648868497723</v>
       </c>
       <c r="D14">
-        <v>0.01007098057518174</v>
+        <v>0.03172160318406014</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.916514904655727</v>
+        <v>3.581208651106891</v>
       </c>
       <c r="G14">
-        <v>0.4643401549037662</v>
+        <v>0.0007816836617195382</v>
       </c>
       <c r="H14">
-        <v>0.9494194925712662</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9334405326008692</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2318306896167144</v>
       </c>
       <c r="K14">
-        <v>0.6404366288028882</v>
+        <v>0.787261640843937</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.175083563626288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.8785565569430105</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.481362905092169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.094568094134559</v>
+        <v>2.936257007642496</v>
       </c>
       <c r="C15">
-        <v>0.6749038552111131</v>
+        <v>0.5761637333004899</v>
       </c>
       <c r="D15">
-        <v>0.01019175182917831</v>
+        <v>0.03145961463811631</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.895450286441985</v>
+        <v>3.54907456180689</v>
       </c>
       <c r="G15">
-        <v>0.4589895464345659</v>
+        <v>0.0007826499108634088</v>
       </c>
       <c r="H15">
-        <v>0.93966323984219</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9246479025913885</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.229932968535735</v>
       </c>
       <c r="K15">
-        <v>0.6332898136213032</v>
+        <v>0.7778191305857334</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.098099875388655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.868300813184824</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.459006441914127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.959903426950234</v>
+        <v>2.734606840203639</v>
       </c>
       <c r="C16">
-        <v>0.6311479506092326</v>
+        <v>0.5363755614954471</v>
       </c>
       <c r="D16">
-        <v>0.01088371418390111</v>
+        <v>0.02996708107277612</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.776797869942413</v>
+        <v>3.3677425912812</v>
       </c>
       <c r="G16">
-        <v>0.4288753342488008</v>
+        <v>0.0007882053051115711</v>
       </c>
       <c r="H16">
-        <v>0.8848347532626093</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8754434225759908</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2192247510298984</v>
       </c>
       <c r="K16">
-        <v>0.5924698759762919</v>
+        <v>0.7241604699387452</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.670229817695258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8100673477520459</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.332903409161318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.87760967149336</v>
+        <v>2.612318526910883</v>
       </c>
       <c r="C17">
-        <v>0.6044776250026302</v>
+        <v>0.5122406204153549</v>
       </c>
       <c r="D17">
-        <v>0.01130812424631245</v>
+        <v>0.02905903670825438</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.70570811038246</v>
+        <v>3.258863804921219</v>
       </c>
       <c r="G17">
-        <v>0.4108519734581222</v>
+        <v>0.0007916316381986824</v>
       </c>
       <c r="H17">
-        <v>0.8520916471348556</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8462345231424493</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2127960835274294</v>
       </c>
       <c r="K17">
-        <v>0.5675416686126269</v>
+        <v>0.6916170916155622</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.418192025208356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7747906820318207</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.257231201138481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.830385569164747</v>
+        <v>2.54246132493671</v>
       </c>
       <c r="C18">
-        <v>0.5891958080923985</v>
+        <v>0.4984507864206762</v>
       </c>
       <c r="D18">
-        <v>0.01155221113157534</v>
+        <v>0.02853942868048165</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.665392695630104</v>
+        <v>3.197051078989546</v>
       </c>
       <c r="G18">
-        <v>0.400637024242485</v>
+        <v>0.0007936098611441204</v>
       </c>
       <c r="H18">
-        <v>0.8335602087666985</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8297643209663974</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2091469220344848</v>
       </c>
       <c r="K18">
-        <v>0.5532422915647004</v>
+        <v>0.6730255157073231</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.276568361461358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7546527166669463</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.21428589957776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.814414247297066</v>
+        <v>2.518887552203807</v>
       </c>
       <c r="C19">
-        <v>0.5840311709200705</v>
+        <v>0.4937967918156687</v>
       </c>
       <c r="D19">
-        <v>0.01163485163430167</v>
+        <v>0.02836394793990848</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.651836579555663</v>
+        <v>3.176256574648079</v>
       </c>
       <c r="G19">
-        <v>0.3972032196352728</v>
+        <v>0.0007942810091117477</v>
       </c>
       <c r="H19">
-        <v>0.827335237196408</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.824241926639445</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2079194086175491</v>
       </c>
       <c r="K19">
-        <v>0.5484071161804351</v>
+        <v>0.666751450125787</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.229148922244434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7478593809914926</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.199841147089955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.886358505865076</v>
+        <v>2.625285771757319</v>
       </c>
       <c r="C20">
-        <v>0.607310583318764</v>
+        <v>0.5148001210391442</v>
       </c>
       <c r="D20">
-        <v>0.01126294758884594</v>
+        <v>0.02915542035005814</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.713215285500766</v>
+        <v>3.270368915281608</v>
       </c>
       <c r="G20">
-        <v>0.4127546001414544</v>
+        <v>0.0007912661412558284</v>
       </c>
       <c r="H20">
-        <v>0.8555454347327043</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8493090925822386</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.21347534344698</v>
       </c>
       <c r="K20">
-        <v>0.5701912472495749</v>
+        <v>0.6950680539470184</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.444665724491259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7785299192003166</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.265225782792243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.129440556698228</v>
+        <v>2.988792552399786</v>
       </c>
       <c r="C21">
-        <v>0.6862583463846761</v>
+        <v>0.5865283511432153</v>
       </c>
       <c r="D21">
-        <v>0.01001306469913832</v>
+        <v>0.03184739405978831</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.926654498838346</v>
+        <v>3.596669818623923</v>
       </c>
       <c r="G21">
-        <v>0.466916186532444</v>
+        <v>0.0007812206116260627</v>
       </c>
       <c r="H21">
-        <v>0.9541180798711508</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9376789446636167</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2327437731048576</v>
       </c>
       <c r="K21">
-        <v>0.6438662204904944</v>
+        <v>0.791798016485842</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.212256616350729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8834844577753955</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.492120626349532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.289440368388512</v>
+        <v>3.231551796596932</v>
       </c>
       <c r="C22">
-        <v>0.7384841797864112</v>
+        <v>0.6344189200587778</v>
       </c>
       <c r="D22">
-        <v>0.009195742365824877</v>
+        <v>0.03363302039463179</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.072426681424957</v>
+        <v>3.818412472209673</v>
       </c>
       <c r="G22">
-        <v>0.5039860735243309</v>
+        <v>0.0007747048866089123</v>
       </c>
       <c r="H22">
-        <v>1.021831830951271</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9990357189576144</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.245838877198878</v>
       </c>
       <c r="K22">
-        <v>0.6924239720257077</v>
+        <v>0.8563900342729056</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.75562835496271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9537068038768908</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.646478243503665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.203935184692142</v>
+        <v>3.101464361427645</v>
       </c>
       <c r="C23">
-        <v>0.7105473507909608</v>
+        <v>0.6087561034203475</v>
       </c>
       <c r="D23">
-        <v>0.009632022172501031</v>
+        <v>0.03267746588853981</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.99398666840095</v>
+        <v>3.699222056489162</v>
       </c>
       <c r="G23">
-        <v>0.4840304200228189</v>
+        <v>0.0007781787998051462</v>
       </c>
       <c r="H23">
-        <v>0.9853572917885458</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.965922206070303</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2388001488936027</v>
       </c>
       <c r="K23">
-        <v>0.6664677519578248</v>
+        <v>0.8217775054504983</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.461098339153708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9160645785878714</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.56349194148396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.882402886662049</v>
+        <v>2.619421894693005</v>
       </c>
       <c r="C24">
-        <v>0.6060296442643676</v>
+        <v>0.5136427060219546</v>
       </c>
       <c r="D24">
-        <v>0.0112833716799452</v>
+        <v>0.02911183773506565</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.709819574818752</v>
+        <v>3.265165028945717</v>
       </c>
       <c r="G24">
-        <v>0.4118939682872735</v>
+        <v>0.0007914313562067568</v>
       </c>
       <c r="H24">
-        <v>0.8539830709065086</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8479180823640462</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.213168105124744</v>
       </c>
       <c r="K24">
-        <v>0.5689932732302196</v>
+        <v>0.6935075088039824</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.432686876711045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7768389673682208</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.261609698857271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.539629937630025</v>
+        <v>2.117403297352325</v>
       </c>
       <c r="C25">
-        <v>0.4954577534701343</v>
+        <v>0.4144792258376242</v>
       </c>
       <c r="D25">
-        <v>0.01306381694318048</v>
+        <v>0.02536698323504893</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.424805486285578</v>
+        <v>2.827433451432256</v>
       </c>
       <c r="G25">
-        <v>0.3397653862172803</v>
+        <v>0.0008060202250461989</v>
       </c>
       <c r="H25">
-        <v>0.7235862950472978</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7330152194095021</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1873404071578122</v>
       </c>
       <c r="K25">
-        <v>0.4652884193142199</v>
+        <v>0.559876435853468</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.44827115756533</v>
+        <v>0.6323620683199351</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.957730501963255</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.758995825015091</v>
+        <v>2.601980071359435</v>
       </c>
       <c r="C2">
-        <v>0.343536848463458</v>
+        <v>0.464916214594183</v>
       </c>
       <c r="D2">
-        <v>0.0226854291080727</v>
+        <v>0.06600751695928864</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.525569599190817</v>
+        <v>0.6725698164247902</v>
       </c>
       <c r="G2">
-        <v>0.0008170943496250227</v>
+        <v>0.0008101713028523346</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3343104000704038</v>
       </c>
       <c r="J2">
-        <v>0.1695646718261941</v>
+        <v>0.08113821632133522</v>
       </c>
       <c r="K2">
-        <v>0.4644188091147825</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2265761611944441</v>
       </c>
       <c r="M2">
-        <v>0.5296320462149637</v>
+        <v>0.4652354612059924</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.748531953379498</v>
+        <v>1.679760602152243</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.521312359756706</v>
+        <v>2.263634966707059</v>
       </c>
       <c r="C3">
-        <v>0.296378836455176</v>
+        <v>0.416950666609722</v>
       </c>
       <c r="D3">
-        <v>0.0209107997078668</v>
+        <v>0.06329847385425325</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.331276615474508</v>
+        <v>0.6632789672599557</v>
       </c>
       <c r="G3">
-        <v>0.0008248410810939054</v>
+        <v>0.0008143702020751542</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3492533981914896</v>
       </c>
       <c r="J3">
-        <v>0.1581531386318886</v>
+        <v>0.0835527783726544</v>
       </c>
       <c r="K3">
-        <v>0.4010752784692997</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2080143989263519</v>
       </c>
       <c r="M3">
-        <v>0.4617516762730318</v>
+        <v>0.4067129120823338</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.614054000141252</v>
+        <v>1.662264706846429</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.377426292173226</v>
+        <v>2.056145051867077</v>
       </c>
       <c r="C4">
-        <v>0.2677705930557863</v>
+        <v>0.3874833007472773</v>
       </c>
       <c r="D4">
-        <v>0.01984099410834617</v>
+        <v>0.06168141806505645</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.216334188299442</v>
+        <v>0.6591543942365803</v>
       </c>
       <c r="G4">
-        <v>0.0008297268888684841</v>
+        <v>0.0008170345536883606</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3594332829767879</v>
       </c>
       <c r="J4">
-        <v>0.151419266014166</v>
+        <v>0.08511143392624909</v>
       </c>
       <c r="K4">
-        <v>0.3627082565411683</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1967876192404674</v>
       </c>
       <c r="M4">
-        <v>0.4207765319662897</v>
+        <v>0.3708859766337369</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.534566573000035</v>
+        <v>1.656011241879739</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.319238077386672</v>
+        <v>1.971628602581063</v>
       </c>
       <c r="C5">
-        <v>0.2561854447048404</v>
+        <v>0.3754675406598835</v>
       </c>
       <c r="D5">
-        <v>0.01940987584723075</v>
+        <v>0.06103371952533365</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.170491927109012</v>
+        <v>0.6578538797922207</v>
       </c>
       <c r="G5">
-        <v>0.0008317517675748736</v>
+        <v>0.0008181423639482857</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3638251939756714</v>
       </c>
       <c r="J5">
-        <v>0.1487382908008499</v>
+        <v>0.0857655496424492</v>
       </c>
       <c r="K5">
-        <v>0.3471870208882137</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1922528425907117</v>
       </c>
       <c r="M5">
-        <v>0.4042349656552275</v>
+        <v>0.3563077819798437</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.502879907000008</v>
+        <v>1.654540589684856</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.309601008014084</v>
+        <v>1.957596217260345</v>
       </c>
       <c r="C6">
-        <v>0.2542657497213554</v>
+        <v>0.3734717791005835</v>
       </c>
       <c r="D6">
-        <v>0.01933857714861276</v>
+        <v>0.06092683935770893</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.162937411839351</v>
+        <v>0.6576604158457329</v>
       </c>
       <c r="G6">
-        <v>0.0008320900809468532</v>
+        <v>0.0008183276587396343</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3645689164196995</v>
       </c>
       <c r="J6">
-        <v>0.1482967776408159</v>
+        <v>0.08587530438036062</v>
       </c>
       <c r="K6">
-        <v>0.3446160776394933</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1915022034293017</v>
       </c>
       <c r="M6">
-        <v>0.401497104513787</v>
+        <v>0.3538882433016965</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.497659000250664</v>
+        <v>1.654360030429771</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.37663982555361</v>
+        <v>2.055005116339544</v>
       </c>
       <c r="C7">
-        <v>0.2676140743861595</v>
+        <v>0.387321287055272</v>
       </c>
       <c r="D7">
-        <v>0.01983516049583045</v>
+        <v>0.06167263785092558</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.215712026928813</v>
+        <v>0.6591353372088733</v>
       </c>
       <c r="G7">
-        <v>0.0008297540581599204</v>
+        <v>0.0008170494041715138</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3594915395720122</v>
       </c>
       <c r="J7">
-        <v>0.151382860762233</v>
+        <v>0.08512017906659963</v>
       </c>
       <c r="K7">
-        <v>0.3624984951986363</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1967263020783889</v>
       </c>
       <c r="M7">
-        <v>0.4205528407216761</v>
+        <v>0.3706892891896487</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.534136469274756</v>
+        <v>1.655987110401043</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.676572819705996</v>
+        <v>2.485248885538738</v>
       </c>
       <c r="C8">
-        <v>0.3271957447974501</v>
+        <v>0.4483789072174602</v>
       </c>
       <c r="D8">
-        <v>0.02206932542354778</v>
+        <v>0.06506359160357533</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.457612717024901</v>
+        <v>0.6690278816067732</v>
       </c>
       <c r="G8">
-        <v>0.0008197394425704044</v>
+        <v>0.0008116014291105937</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3392485587514038</v>
       </c>
       <c r="J8">
-        <v>0.1655699093081111</v>
+        <v>0.08195484716515189</v>
       </c>
       <c r="K8">
-        <v>0.4424570157191212</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2201391368163499</v>
       </c>
       <c r="M8">
-        <v>0.5060677720083788</v>
+        <v>0.4450316573158233</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.701480258532015</v>
+        <v>1.672764744042297</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.284506068717576</v>
+        <v>3.332322021592859</v>
       </c>
       <c r="C9">
-        <v>0.447506845891894</v>
+        <v>0.5681576242371023</v>
       </c>
       <c r="D9">
-        <v>0.02661599213127985</v>
+        <v>0.07209929041694352</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.971353523232551</v>
+        <v>0.7017759932123866</v>
       </c>
       <c r="G9">
-        <v>0.0008010592412600574</v>
+        <v>0.0008015834900184574</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3079582726726677</v>
       </c>
       <c r="J9">
-        <v>0.1958276653955835</v>
+        <v>0.07636022592410185</v>
       </c>
       <c r="K9">
-        <v>0.6043647323567853</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.267528001239512</v>
       </c>
       <c r="M9">
-        <v>0.6803853688627939</v>
+        <v>0.5919133498147033</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.057576481839106</v>
+        <v>1.743722457670231</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.748628723556692</v>
+        <v>3.958779910589726</v>
       </c>
       <c r="C10">
-        <v>0.5391426009495319</v>
+        <v>0.656456698140147</v>
       </c>
       <c r="D10">
-        <v>0.03007106547170935</v>
+        <v>0.07753194009073638</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.380280405651064</v>
+        <v>0.7351721268346125</v>
       </c>
       <c r="G10">
-        <v>0.0007878152963942435</v>
+        <v>0.000794601652063075</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2907298190285026</v>
       </c>
       <c r="J10">
-        <v>0.2199650966367628</v>
+        <v>0.07263596565590369</v>
       </c>
       <c r="K10">
-        <v>0.727891827233023</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3034342589517536</v>
       </c>
       <c r="M10">
-        <v>0.8141141618989494</v>
+        <v>0.7008850489308571</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.341619547152519</v>
+        <v>1.822655551431666</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.964950717394174</v>
+        <v>4.245165401539396</v>
       </c>
       <c r="C11">
-        <v>0.5818246979940227</v>
+        <v>0.6967569494397026</v>
       </c>
       <c r="D11">
-        <v>0.03167146798632103</v>
+        <v>0.0800673865023569</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.57505229912374</v>
+        <v>0.7526773891093086</v>
       </c>
       <c r="G11">
-        <v>0.0007818683735416969</v>
+        <v>0.000791501137545959</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2842941280695435</v>
       </c>
       <c r="J11">
-        <v>0.2314671171504727</v>
+        <v>0.07102854927536484</v>
       </c>
       <c r="K11">
-        <v>0.7854541073067836</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3200510567980928</v>
       </c>
       <c r="M11">
-        <v>0.8765931684327981</v>
+        <v>0.7507830079266782</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.47707956167622</v>
+        <v>1.865242167647011</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.047744435615073</v>
+        <v>4.353858437924089</v>
       </c>
       <c r="C12">
-        <v>0.5981584356560461</v>
+        <v>0.7120425016382796</v>
       </c>
       <c r="D12">
-        <v>0.03228197771633035</v>
+        <v>0.08103731016116456</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.650246822988663</v>
+        <v>0.7596644132393138</v>
       </c>
       <c r="G12">
-        <v>0.0007796251468436409</v>
+        <v>0.0007903373546103803</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2820722878568631</v>
       </c>
       <c r="J12">
-        <v>0.2359078516259245</v>
+        <v>0.07043261606783524</v>
       </c>
       <c r="K12">
-        <v>0.8074839238528142</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3263881025329169</v>
       </c>
       <c r="M12">
-        <v>0.9005282576245293</v>
+        <v>0.769733269017749</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.529404018074075</v>
+        <v>1.882406361363422</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.029872048005927</v>
+        <v>4.330437830058997</v>
       </c>
       <c r="C13">
-        <v>0.5946325901970226</v>
+        <v>0.7087492896973515</v>
       </c>
       <c r="D13">
-        <v>0.03215028852848434</v>
+        <v>0.08082797384639662</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.633985236258866</v>
+        <v>0.7581432769492764</v>
       </c>
       <c r="G13">
-        <v>0.0007801079190544735</v>
+        <v>0.0007905875465344852</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2825410009967477</v>
       </c>
       <c r="J13">
-        <v>0.2349474972323833</v>
+        <v>0.07056038870710069</v>
       </c>
       <c r="K13">
-        <v>0.8027284689949852</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3250212555703911</v>
       </c>
       <c r="M13">
-        <v>0.895360473450971</v>
+        <v>0.7656494101164597</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.518087008267969</v>
+        <v>1.878662311202476</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.971743815871321</v>
+        <v>4.254102474178922</v>
       </c>
       <c r="C14">
-        <v>0.5831648868497723</v>
+        <v>0.6980139714270877</v>
       </c>
       <c r="D14">
-        <v>0.03172160318406014</v>
+        <v>0.08014698267825082</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.581208651106891</v>
+        <v>0.7532448848943289</v>
       </c>
       <c r="G14">
-        <v>0.0007816836617195382</v>
+        <v>0.0007914051890074996</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2841069409172583</v>
       </c>
       <c r="J14">
-        <v>0.2318306896167144</v>
+        <v>0.0709792640622382</v>
       </c>
       <c r="K14">
-        <v>0.787261640843937</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3205714913328421</v>
       </c>
       <c r="M14">
-        <v>0.8785565569430105</v>
+        <v>0.7523409067179756</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.481362905092169</v>
+        <v>1.866633020204404</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.936257007642496</v>
+        <v>4.207378108077023</v>
       </c>
       <c r="C15">
-        <v>0.5761637333004899</v>
+        <v>0.6914416746563461</v>
       </c>
       <c r="D15">
-        <v>0.03145961463811631</v>
+        <v>0.07973115100363515</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.54907456180689</v>
+        <v>0.7502919105864976</v>
       </c>
       <c r="G15">
-        <v>0.0007826499108634088</v>
+        <v>0.0007919073449242813</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2850945740957158</v>
       </c>
       <c r="J15">
-        <v>0.229932968535735</v>
+        <v>0.07123750783548566</v>
       </c>
       <c r="K15">
-        <v>0.7778191305857334</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3178518160144534</v>
       </c>
       <c r="M15">
-        <v>0.868300813184824</v>
+        <v>0.744196475787831</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.459006441914127</v>
+        <v>1.859402237491764</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.734606840203639</v>
+        <v>3.940095831247334</v>
       </c>
       <c r="C16">
-        <v>0.5363755614954471</v>
+        <v>0.6538261223950883</v>
       </c>
       <c r="D16">
-        <v>0.02996708107277612</v>
+        <v>0.07736758185586723</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.3677425912812</v>
+        <v>0.7340768048295558</v>
       </c>
       <c r="G16">
-        <v>0.0007882053051115711</v>
+        <v>0.0007948057521706118</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2911797569323795</v>
       </c>
       <c r="J16">
-        <v>0.2192247510298984</v>
+        <v>0.07274278389105859</v>
       </c>
       <c r="K16">
-        <v>0.7241604699387452</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3023543350355453</v>
       </c>
       <c r="M16">
-        <v>0.8100673477520459</v>
+        <v>0.6976313401424932</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.332903409161318</v>
+        <v>1.820013285324507</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.612318526910883</v>
+        <v>3.776516473512459</v>
       </c>
       <c r="C17">
-        <v>0.5122406204153549</v>
+        <v>0.6307880299444548</v>
       </c>
       <c r="D17">
-        <v>0.02905903670825438</v>
+        <v>0.07593443184841675</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.258863804921219</v>
+        <v>0.7247394220726164</v>
       </c>
       <c r="G17">
-        <v>0.0007916316381986824</v>
+        <v>0.0007966028030556383</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2952812301829653</v>
       </c>
       <c r="J17">
-        <v>0.2127960835274294</v>
+        <v>0.07368864119304419</v>
       </c>
       <c r="K17">
-        <v>0.6916170916155622</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2929222992779614</v>
       </c>
       <c r="M17">
-        <v>0.7747906820318207</v>
+        <v>0.6691542347738775</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.257231201138481</v>
+        <v>1.797613316449286</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.54246132493671</v>
+        <v>3.682559594744703</v>
       </c>
       <c r="C18">
-        <v>0.4984507864206762</v>
+        <v>0.617549239215947</v>
       </c>
       <c r="D18">
-        <v>0.02853942868048165</v>
+        <v>0.07511611826600273</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.197051078989546</v>
+        <v>0.7195849025536702</v>
       </c>
       <c r="G18">
-        <v>0.0007936098611441204</v>
+        <v>0.0007976435661382652</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2977713427859712</v>
       </c>
       <c r="J18">
-        <v>0.2091469220344848</v>
+        <v>0.07424082229696083</v>
       </c>
       <c r="K18">
-        <v>0.6730255157073231</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2875236126551926</v>
       </c>
       <c r="M18">
-        <v>0.7546527166669463</v>
+        <v>0.6528051386328571</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.21428589957776</v>
+        <v>1.785353224750025</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.518887552203807</v>
+        <v>3.650768427253638</v>
       </c>
       <c r="C19">
-        <v>0.4937967918156687</v>
+        <v>0.6130687274060165</v>
       </c>
       <c r="D19">
-        <v>0.02836394793990848</v>
+        <v>0.07484006406382093</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.176256574648079</v>
+        <v>0.7178760371563726</v>
       </c>
       <c r="G19">
-        <v>0.0007942810091117477</v>
+        <v>0.000797997194348643</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2986365599289549</v>
       </c>
       <c r="J19">
-        <v>0.2079194086175491</v>
+        <v>0.07442917259886883</v>
       </c>
       <c r="K19">
-        <v>0.666751450125787</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2857001237180441</v>
       </c>
       <c r="M19">
-        <v>0.7478593809914926</v>
+        <v>0.6472745633068158</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.199841147089955</v>
+        <v>1.781307045335524</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.625285771757319</v>
+        <v>3.793916058856496</v>
       </c>
       <c r="C20">
-        <v>0.5148001210391442</v>
+        <v>0.6332391813120353</v>
       </c>
       <c r="D20">
-        <v>0.02915542035005814</v>
+        <v>0.07608636839795224</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.270368915281608</v>
+        <v>0.7257108581694354</v>
       </c>
       <c r="G20">
-        <v>0.0007912661412558284</v>
+        <v>0.0007964107680528034</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2948309618789651</v>
       </c>
       <c r="J20">
-        <v>0.21347534344698</v>
+        <v>0.07358710768501808</v>
       </c>
       <c r="K20">
-        <v>0.6950680539470184</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2939235986161464</v>
       </c>
       <c r="M20">
-        <v>0.7785299192003166</v>
+        <v>0.6721824910319611</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.265225782792243</v>
+        <v>1.799932732356268</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.988792552399786</v>
+        <v>4.276517009411805</v>
       </c>
       <c r="C21">
-        <v>0.5865283511432153</v>
+        <v>0.7011664761959082</v>
       </c>
       <c r="D21">
-        <v>0.03184739405978831</v>
+        <v>0.08034673528886316</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.596669818623923</v>
+        <v>0.7546737283533176</v>
       </c>
       <c r="G21">
-        <v>0.0007812206116260627</v>
+        <v>0.0007911647522343464</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2836410317201867</v>
       </c>
       <c r="J21">
-        <v>0.2327437731048576</v>
+        <v>0.0708558815491287</v>
       </c>
       <c r="K21">
-        <v>0.791798016485842</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.321877250892797</v>
       </c>
       <c r="M21">
-        <v>0.8834844577753955</v>
+        <v>0.7562483768487169</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.492120626349532</v>
+        <v>1.870137512982467</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.231551796596932</v>
+        <v>4.593375442013269</v>
       </c>
       <c r="C22">
-        <v>0.6344189200587778</v>
+        <v>0.7457079655506504</v>
       </c>
       <c r="D22">
-        <v>0.03363302039463179</v>
+        <v>0.08318858771831117</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.818412472209673</v>
+        <v>0.7757034830485452</v>
       </c>
       <c r="G22">
-        <v>0.0007747048866089123</v>
+        <v>0.0007877960166734901</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2775892730957104</v>
       </c>
       <c r="J22">
-        <v>0.245838877198878</v>
+        <v>0.06914539055801683</v>
       </c>
       <c r="K22">
-        <v>0.8563900342729056</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3404087373677811</v>
       </c>
       <c r="M22">
-        <v>0.9537068038768908</v>
+        <v>0.8115150180540738</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.646478243503665</v>
+        <v>1.922108065570683</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.101464361427645</v>
+        <v>4.424114333972227</v>
       </c>
       <c r="C23">
-        <v>0.6087561034203475</v>
+        <v>0.7219198797330932</v>
       </c>
       <c r="D23">
-        <v>0.03267746588853981</v>
+        <v>0.08166637481278372</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.699222056489162</v>
+        <v>0.7642783545497309</v>
       </c>
       <c r="G23">
-        <v>0.0007781787998051462</v>
+        <v>0.000789588690626541</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2806990074250031</v>
       </c>
       <c r="J23">
-        <v>0.2388001488936027</v>
+        <v>0.07005139431674934</v>
       </c>
       <c r="K23">
-        <v>0.8217775054504983</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3304927632754016</v>
       </c>
       <c r="M23">
-        <v>0.9160645785878714</v>
+        <v>0.7819856195149768</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.56349194148396</v>
+        <v>1.893786414057189</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.619421894693005</v>
+        <v>3.786049438302939</v>
       </c>
       <c r="C24">
-        <v>0.5136427060219546</v>
+        <v>0.6321309971522453</v>
       </c>
       <c r="D24">
-        <v>0.02911183773506565</v>
+        <v>0.07601766041215541</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.265165028945717</v>
+        <v>0.7252710082958558</v>
       </c>
       <c r="G24">
-        <v>0.0007914313562067568</v>
+        <v>0.0007964975632935419</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2950341176736089</v>
       </c>
       <c r="J24">
-        <v>0.213168105124744</v>
+        <v>0.07363298485610059</v>
       </c>
       <c r="K24">
-        <v>0.6935075088039824</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2934708369862875</v>
       </c>
       <c r="M24">
-        <v>0.7768389673682208</v>
+        <v>0.6708133460541319</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.261609698857271</v>
+        <v>1.79888220541136</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.117403297352325</v>
+        <v>3.102602403628168</v>
       </c>
       <c r="C25">
-        <v>0.4144792258376242</v>
+        <v>0.5357228856718166</v>
       </c>
       <c r="D25">
-        <v>0.02536698323504893</v>
+        <v>0.07015182589827162</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.827433451432256</v>
+        <v>0.691368619959853</v>
       </c>
       <c r="G25">
-        <v>0.0008060202250461989</v>
+        <v>0.0008042250927020846</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.315459995796985</v>
       </c>
       <c r="J25">
-        <v>0.1873404071578122</v>
+        <v>0.07780688163422766</v>
       </c>
       <c r="K25">
-        <v>0.559876435853468</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2545312013682235</v>
       </c>
       <c r="M25">
-        <v>0.6323620683199351</v>
+        <v>0.5520220956401616</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.957730501963255</v>
+        <v>1.720094852638539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.601980071359435</v>
+        <v>1.225111487315985</v>
       </c>
       <c r="C2">
-        <v>0.464916214594183</v>
+        <v>0.2006750712341443</v>
       </c>
       <c r="D2">
-        <v>0.06600751695928864</v>
+        <v>0.1579374492244341</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6725698164247902</v>
+        <v>1.533339266402763</v>
       </c>
       <c r="G2">
-        <v>0.0008101713028523346</v>
+        <v>0.002475189058415209</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3343104000704038</v>
+        <v>0.9362062281404526</v>
       </c>
       <c r="J2">
-        <v>0.08113821632133522</v>
+        <v>0.1940202047970914</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2265761611944441</v>
+        <v>0.368258523396733</v>
       </c>
       <c r="M2">
-        <v>0.4652354612059924</v>
+        <v>0.3174805604416733</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.679760602152243</v>
+        <v>3.801774937353116</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.263634966707059</v>
+        <v>1.121270145119638</v>
       </c>
       <c r="C3">
-        <v>0.416950666609722</v>
+        <v>0.1846934509052858</v>
       </c>
       <c r="D3">
-        <v>0.06329847385425325</v>
+        <v>0.1577935054873976</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6632789672599557</v>
+        <v>1.544679415121983</v>
       </c>
       <c r="G3">
-        <v>0.0008143702020751542</v>
+        <v>0.002477993517129873</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3492533981914896</v>
+        <v>0.9489868317012231</v>
       </c>
       <c r="J3">
-        <v>0.0835527783726544</v>
+        <v>0.1954383489362055</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2080143989263519</v>
+        <v>0.3647141112970473</v>
       </c>
       <c r="M3">
-        <v>0.4067129120823338</v>
+        <v>0.3005162760387918</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.662264706846429</v>
+        <v>3.834246426473754</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.056145051867077</v>
+        <v>1.057536925209604</v>
       </c>
       <c r="C4">
-        <v>0.3874833007472773</v>
+        <v>0.1748252893644349</v>
       </c>
       <c r="D4">
-        <v>0.06168141806505645</v>
+        <v>0.1577437270608293</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6591543942365803</v>
+        <v>1.552527625682515</v>
       </c>
       <c r="G4">
-        <v>0.0008170345536883606</v>
+        <v>0.0024798082109431</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3594332829767879</v>
+        <v>0.9573873776198987</v>
       </c>
       <c r="J4">
-        <v>0.08511143392624909</v>
+        <v>0.196361499002272</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1967876192404674</v>
+        <v>0.3626574857707965</v>
       </c>
       <c r="M4">
-        <v>0.3708859766337369</v>
+        <v>0.2901542426530241</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.656011241879739</v>
+        <v>3.856571794901555</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.971628602581063</v>
+        <v>1.031573406753751</v>
       </c>
       <c r="C5">
-        <v>0.3754675406598835</v>
+        <v>0.1707902509213852</v>
       </c>
       <c r="D5">
-        <v>0.06103371952533365</v>
+        <v>0.1577331865717788</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6578538797922207</v>
+        <v>1.555948446384313</v>
       </c>
       <c r="G5">
-        <v>0.0008181423639482857</v>
+        <v>0.002480571103935357</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3638251939756714</v>
+        <v>0.9609497030683656</v>
       </c>
       <c r="J5">
-        <v>0.0857655496424492</v>
+        <v>0.1967508923840118</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1922528425907117</v>
+        <v>0.3618496127635993</v>
       </c>
       <c r="M5">
-        <v>0.3563077819798437</v>
+        <v>0.2859455529281831</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.654540589684856</v>
+        <v>3.866269687236027</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.957596217260345</v>
+        <v>1.02726273806104</v>
       </c>
       <c r="C6">
-        <v>0.3734717791005835</v>
+        <v>0.1701194166899143</v>
       </c>
       <c r="D6">
-        <v>0.06092683935770893</v>
+        <v>0.1577320259859505</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6576604158457329</v>
+        <v>1.556529915987745</v>
       </c>
       <c r="G6">
-        <v>0.0008183276587396343</v>
+        <v>0.002480699196641567</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3645689164196995</v>
+        <v>0.9615496197180384</v>
       </c>
       <c r="J6">
-        <v>0.08587530438036062</v>
+        <v>0.1968163489747816</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1915022034293017</v>
+        <v>0.3617172950190977</v>
       </c>
       <c r="M6">
-        <v>0.3538882433016965</v>
+        <v>0.2852475535097696</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.654360030429771</v>
+        <v>3.867916252225427</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.055005116339544</v>
+        <v>1.057186736171104</v>
       </c>
       <c r="C7">
-        <v>0.387321287055272</v>
+        <v>0.1747709264993773</v>
       </c>
       <c r="D7">
-        <v>0.06167263785092558</v>
+        <v>0.1577435454025675</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6591353372088733</v>
+        <v>1.552572858735132</v>
       </c>
       <c r="G7">
-        <v>0.0008170494041715138</v>
+        <v>0.002479818404848191</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3594915395720122</v>
+        <v>0.9574348575380363</v>
       </c>
       <c r="J7">
-        <v>0.08512017906659963</v>
+        <v>0.1963666970097453</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1967263020783889</v>
+        <v>0.3626464679860959</v>
       </c>
       <c r="M7">
-        <v>0.3706892891896487</v>
+        <v>0.2900974259951496</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.655987110401043</v>
+        <v>3.856700154588523</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.485248885538738</v>
+        <v>1.189302686181975</v>
       </c>
       <c r="C8">
-        <v>0.4483789072174602</v>
+        <v>0.1951762440750713</v>
       </c>
       <c r="D8">
-        <v>0.06506359160357533</v>
+        <v>0.1578798273994053</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6690278816067732</v>
+        <v>1.537065597073628</v>
       </c>
       <c r="G8">
-        <v>0.0008116014291105937</v>
+        <v>0.00247613682819277</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3392485587514038</v>
+        <v>0.9404981201725846</v>
       </c>
       <c r="J8">
-        <v>0.08195484716515189</v>
+        <v>0.1944983194723378</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2201391368163499</v>
+        <v>0.367011651011282</v>
       </c>
       <c r="M8">
-        <v>0.4450316573158233</v>
+        <v>0.311620229938903</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.672764744042297</v>
+        <v>3.81247535253226</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.332322021592859</v>
+        <v>1.44852027938424</v>
       </c>
       <c r="C9">
-        <v>0.5681576242371023</v>
+        <v>0.2347427671507489</v>
       </c>
       <c r="D9">
-        <v>0.07209929041694352</v>
+        <v>0.1584518437378364</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7017759932123866</v>
+        <v>1.513681559714712</v>
       </c>
       <c r="G9">
-        <v>0.0008015834900184574</v>
+        <v>0.002469650000985923</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3079582726726677</v>
+        <v>0.9116776412100123</v>
       </c>
       <c r="J9">
-        <v>0.07636022592410185</v>
+        <v>0.1912491025817076</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.267528001239512</v>
+        <v>0.3765162238181432</v>
       </c>
       <c r="M9">
-        <v>0.5919133498147033</v>
+        <v>0.3542440023846893</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.743722457670231</v>
+        <v>3.744711058976833</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.958779910589726</v>
+        <v>1.638982757266547</v>
       </c>
       <c r="C10">
-        <v>0.656456698140147</v>
+        <v>0.263529984633891</v>
       </c>
       <c r="D10">
-        <v>0.07753194009073638</v>
+        <v>0.1590559976427741</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7351721268346125</v>
+        <v>1.500786903740817</v>
       </c>
       <c r="G10">
-        <v>0.000794601652063075</v>
+        <v>0.002465326398685249</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2907298190285026</v>
+        <v>0.8931846853836589</v>
       </c>
       <c r="J10">
-        <v>0.07263596565590369</v>
+        <v>0.1891131047604606</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3034342589517536</v>
+        <v>0.3840693957238841</v>
       </c>
       <c r="M10">
-        <v>0.7008850489308571</v>
+        <v>0.3858019164046809</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.822655551431666</v>
+        <v>3.706505970381727</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.245165401539396</v>
+        <v>1.725619096886589</v>
       </c>
       <c r="C11">
-        <v>0.6967569494397026</v>
+        <v>0.2765630148292644</v>
       </c>
       <c r="D11">
-        <v>0.0800673865023569</v>
+        <v>0.1593703832989917</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7526773891093086</v>
+        <v>1.49585200067115</v>
       </c>
       <c r="G11">
-        <v>0.000791501137545959</v>
+        <v>0.002463454573369717</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2842941280695435</v>
+        <v>0.8853548047959166</v>
       </c>
       <c r="J11">
-        <v>0.07102854927536484</v>
+        <v>0.1881955944174241</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3200510567980928</v>
+        <v>0.3876282208110382</v>
       </c>
       <c r="M11">
-        <v>0.7507830079266782</v>
+        <v>0.4002086380611942</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.865242167647011</v>
+        <v>3.69164528115229</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.353858437924089</v>
+        <v>1.758423638306795</v>
       </c>
       <c r="C12">
-        <v>0.7120425016382796</v>
+        <v>0.2814891047784727</v>
       </c>
       <c r="D12">
-        <v>0.08103731016116456</v>
+        <v>0.1594950855071815</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7596644132393138</v>
+        <v>1.494117189634935</v>
       </c>
       <c r="G12">
-        <v>0.0007903373546103803</v>
+        <v>0.002462759352079846</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2820722878568631</v>
+        <v>0.8824737010821089</v>
       </c>
       <c r="J12">
-        <v>0.07043261606783524</v>
+        <v>0.1878559213664719</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3263881025329169</v>
+        <v>0.38899340661861</v>
       </c>
       <c r="M12">
-        <v>0.769733269017749</v>
+        <v>0.4056711332700971</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.882406361363422</v>
+        <v>3.686380542409353</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.330437830058997</v>
+        <v>1.751358746192011</v>
       </c>
       <c r="C13">
-        <v>0.7087492896973515</v>
+        <v>0.2804285980461714</v>
       </c>
       <c r="D13">
-        <v>0.08082797384639662</v>
+        <v>0.1594679778971724</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7581432769492764</v>
+        <v>1.494484854704751</v>
       </c>
       <c r="G13">
-        <v>0.0007905875465344852</v>
+        <v>0.002462908476613471</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2825410009967477</v>
+        <v>0.8830904648907563</v>
       </c>
       <c r="J13">
-        <v>0.07056038870710069</v>
+        <v>0.1879287308704782</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3250212555703911</v>
+        <v>0.3886986115690121</v>
       </c>
       <c r="M13">
-        <v>0.7656494101164597</v>
+        <v>0.4044943819171323</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.878662311202476</v>
+        <v>3.687498260546135</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.254102474178922</v>
+        <v>1.728318012391526</v>
       </c>
       <c r="C14">
-        <v>0.6980139714270877</v>
+        <v>0.2769684737929197</v>
       </c>
       <c r="D14">
-        <v>0.08014698267825082</v>
+        <v>0.1593805295748041</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7532448848943289</v>
+        <v>1.495706592224586</v>
       </c>
       <c r="G14">
-        <v>0.0007914051890074996</v>
+        <v>0.002463397105020535</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2841069409172583</v>
+        <v>0.8851160924682198</v>
       </c>
       <c r="J14">
-        <v>0.0709792640622382</v>
+        <v>0.1881674937425064</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3205714913328421</v>
+        <v>0.3877401847619382</v>
       </c>
       <c r="M14">
-        <v>0.7523409067179756</v>
+        <v>0.4006579027887085</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.866633020204404</v>
+        <v>3.691204876661459</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.207378108077023</v>
+        <v>1.714204482109835</v>
       </c>
       <c r="C15">
-        <v>0.6914416746563461</v>
+        <v>0.2748478373354146</v>
       </c>
       <c r="D15">
-        <v>0.07973115100363515</v>
+        <v>0.1593276998231445</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7502919105864976</v>
+        <v>1.496472385135874</v>
       </c>
       <c r="G15">
-        <v>0.0007919073449242813</v>
+        <v>0.002463698172952562</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2850945740957158</v>
+        <v>0.8863677778417376</v>
       </c>
       <c r="J15">
-        <v>0.07123750783548566</v>
+        <v>0.188314753933998</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3178518160144534</v>
+        <v>0.3871554005349367</v>
       </c>
       <c r="M15">
-        <v>0.744196475787831</v>
+        <v>0.3983088480298989</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.859402237491764</v>
+        <v>3.693522531319985</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.940095831247334</v>
+        <v>1.633320585505203</v>
       </c>
       <c r="C16">
-        <v>0.6538261223950883</v>
+        <v>0.2626769671554143</v>
       </c>
       <c r="D16">
-        <v>0.07736758185586723</v>
+        <v>0.1590362445849109</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7340768048295558</v>
+        <v>1.501128149449528</v>
       </c>
       <c r="G16">
-        <v>0.0007948057521706118</v>
+        <v>0.002465450633201921</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2911797569323795</v>
+        <v>0.893708121034237</v>
       </c>
       <c r="J16">
-        <v>0.07274278389105859</v>
+        <v>0.1891741543911536</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3023543350355453</v>
+        <v>0.3838392790856062</v>
       </c>
       <c r="M16">
-        <v>0.6976313401424932</v>
+        <v>0.3848613983983</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.820013285324507</v>
+        <v>3.707527878830774</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.776516473512459</v>
+        <v>1.583698044115067</v>
       </c>
       <c r="C17">
-        <v>0.6307880299444548</v>
+        <v>0.2551943598049604</v>
       </c>
       <c r="D17">
-        <v>0.07593443184841675</v>
+        <v>0.1588675506902959</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7247394220726164</v>
+        <v>1.504222790374939</v>
       </c>
       <c r="G17">
-        <v>0.0007966028030556383</v>
+        <v>0.002466549998314329</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2952812301829653</v>
+        <v>0.8983604995232817</v>
       </c>
       <c r="J17">
-        <v>0.07368864119304419</v>
+        <v>0.1897152270262019</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2929222992779614</v>
+        <v>0.3818363182504498</v>
       </c>
       <c r="M17">
-        <v>0.6691542347738775</v>
+        <v>0.376624615001333</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.797613316449286</v>
+        <v>3.716765204821797</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.682559594744703</v>
+        <v>1.55515601887879</v>
       </c>
       <c r="C18">
-        <v>0.617549239215947</v>
+        <v>0.250884702155389</v>
       </c>
       <c r="D18">
-        <v>0.07511611826600273</v>
+        <v>0.1587742475126532</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7195849025536702</v>
+        <v>1.506090366900402</v>
       </c>
       <c r="G18">
-        <v>0.0007976435661382652</v>
+        <v>0.002467191270070211</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2977713427859712</v>
+        <v>0.9010912601191592</v>
       </c>
       <c r="J18">
-        <v>0.07424082229696083</v>
+        <v>0.1900315372588857</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2875236126551926</v>
+        <v>0.3806958390250088</v>
       </c>
       <c r="M18">
-        <v>0.6528051386328571</v>
+        <v>0.3718918427439775</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.785353224750025</v>
+        <v>3.722315343445302</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.650768427253638</v>
+        <v>1.545492159994524</v>
       </c>
       <c r="C19">
-        <v>0.6130687274060165</v>
+        <v>0.2494245276492961</v>
       </c>
       <c r="D19">
-        <v>0.07484006406382093</v>
+        <v>0.1587432975618484</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7178760371563726</v>
+        <v>1.506737743311618</v>
       </c>
       <c r="G19">
-        <v>0.000797997194348643</v>
+        <v>0.00246740993189809</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2986365599289549</v>
+        <v>0.9020252632379595</v>
       </c>
       <c r="J19">
-        <v>0.07442917259886883</v>
+        <v>0.1901395109608082</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2857001237180441</v>
+        <v>0.380311683621315</v>
       </c>
       <c r="M19">
-        <v>0.6472745633068158</v>
+        <v>0.3702902432684496</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.781307045335524</v>
+        <v>3.724235228697268</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.793916058856496</v>
+        <v>1.588980508917814</v>
       </c>
       <c r="C20">
-        <v>0.6332391813120353</v>
+        <v>0.2559915044902255</v>
       </c>
       <c r="D20">
-        <v>0.07608636839795224</v>
+        <v>0.1588851231764608</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7257108581694354</v>
+        <v>1.50388429167883</v>
       </c>
       <c r="G20">
-        <v>0.0007964107680528034</v>
+        <v>0.002466432043725531</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2948309618789651</v>
+        <v>0.8978595697710681</v>
       </c>
       <c r="J20">
-        <v>0.07358710768501808</v>
+        <v>0.1896571012861585</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2939235986161464</v>
+        <v>0.3820483402497672</v>
       </c>
       <c r="M20">
-        <v>0.6721824910319611</v>
+        <v>0.3775009394913837</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.799932732356268</v>
+        <v>3.71575733623385</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.276517009411805</v>
+        <v>1.73508572438999</v>
       </c>
       <c r="C21">
-        <v>0.7011664761959082</v>
+        <v>0.2779850488760758</v>
       </c>
       <c r="D21">
-        <v>0.08034673528886316</v>
+        <v>0.1594060621852904</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7546737283533176</v>
+        <v>1.495344103001848</v>
       </c>
       <c r="G21">
-        <v>0.0007911647522343464</v>
+        <v>0.002463253214602431</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2836410317201867</v>
+        <v>0.8845188385381384</v>
       </c>
       <c r="J21">
-        <v>0.0708558815491287</v>
+        <v>0.1880971526371713</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.321877250892797</v>
+        <v>0.3880212230563131</v>
       </c>
       <c r="M21">
-        <v>0.7562483768487169</v>
+        <v>0.4017845828450106</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.870137512982467</v>
+        <v>3.690106306984859</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.593375442013269</v>
+        <v>1.830556969550457</v>
       </c>
       <c r="C22">
-        <v>0.7457079655506504</v>
+        <v>0.2923051495134814</v>
       </c>
       <c r="D22">
-        <v>0.08318858771831117</v>
+        <v>0.1597794485578419</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7757034830485452</v>
+        <v>1.490543268394418</v>
       </c>
       <c r="G22">
-        <v>0.0007877960166734901</v>
+        <v>0.002461254898300994</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2775892730957104</v>
+        <v>0.8762889993392982</v>
       </c>
       <c r="J22">
-        <v>0.06914539055801683</v>
+        <v>0.1871229056033474</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3404087373677811</v>
+        <v>0.3920270006377109</v>
       </c>
       <c r="M22">
-        <v>0.8115150180540738</v>
+        <v>0.4176958934873838</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.922108065570683</v>
+        <v>3.675456071417756</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.424114333972227</v>
+        <v>1.779604344503582</v>
       </c>
       <c r="C23">
-        <v>0.7219198797330932</v>
+        <v>0.2846672642363046</v>
       </c>
       <c r="D23">
-        <v>0.08166637481278372</v>
+        <v>0.1595771648128945</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7642783545497309</v>
+        <v>1.493034112527454</v>
       </c>
       <c r="G23">
-        <v>0.000789588690626541</v>
+        <v>0.002462314208258111</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2806990074250031</v>
+        <v>0.8806366282372302</v>
       </c>
       <c r="J23">
-        <v>0.07005139431674934</v>
+        <v>0.1876387442026921</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3304927632754016</v>
+        <v>0.3898797373867922</v>
       </c>
       <c r="M23">
-        <v>0.7819856195149768</v>
+        <v>0.4092001268736354</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.893786414057189</v>
+        <v>3.683081579995957</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.786049438302939</v>
+        <v>1.586592348068336</v>
       </c>
       <c r="C24">
-        <v>0.6321309971522453</v>
+        <v>0.2556311396776039</v>
       </c>
       <c r="D24">
-        <v>0.07601766041215541</v>
+        <v>0.1588771671867804</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7252710082958558</v>
+        <v>1.50403705150044</v>
       </c>
       <c r="G24">
-        <v>0.0007964975632935419</v>
+        <v>0.002466485342308469</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2950341176736089</v>
+        <v>0.8980858655385617</v>
       </c>
       <c r="J24">
-        <v>0.07363298485610059</v>
+        <v>0.1896833636083528</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2934708369862875</v>
+        <v>0.3819524506762946</v>
       </c>
       <c r="M24">
-        <v>0.6708133460541319</v>
+        <v>0.3771047448658393</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.79888220541136</v>
+        <v>3.71621224769504</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.102602403628168</v>
+        <v>1.378387420023955</v>
       </c>
       <c r="C25">
-        <v>0.5357228856718166</v>
+        <v>0.2240879053355229</v>
       </c>
       <c r="D25">
-        <v>0.07015182589827162</v>
+        <v>0.1582646678893198</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.691368619959853</v>
+        <v>1.519255148204074</v>
       </c>
       <c r="G25">
-        <v>0.0008042250927020846</v>
+        <v>0.002471326874499742</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.315459995796985</v>
+        <v>0.9190037219731764</v>
       </c>
       <c r="J25">
-        <v>0.07780688163422766</v>
+        <v>0.1920838743794366</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2545312013682235</v>
+        <v>0.3738444557761653</v>
       </c>
       <c r="M25">
-        <v>0.5520220956401616</v>
+        <v>0.342669720181668</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.720094852638539</v>
+        <v>3.761010911946329</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.225111487315985</v>
+        <v>2.601980071359435</v>
       </c>
       <c r="C2">
-        <v>0.2006750712341443</v>
+        <v>0.464916214594183</v>
       </c>
       <c r="D2">
-        <v>0.1579374492244341</v>
+        <v>0.06600751695940232</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.533339266402763</v>
+        <v>0.6725698164247973</v>
       </c>
       <c r="G2">
-        <v>0.002475189058415209</v>
+        <v>0.0008101713029101759</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9362062281404526</v>
+        <v>0.3343104000704251</v>
       </c>
       <c r="J2">
-        <v>0.1940202047970914</v>
+        <v>0.08113821632138318</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.368258523396733</v>
+        <v>0.2265761611943518</v>
       </c>
       <c r="M2">
-        <v>0.3174805604416733</v>
+        <v>0.4652354612060137</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.801774937353116</v>
+        <v>1.679760602152271</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.121270145119638</v>
+        <v>2.263634966707059</v>
       </c>
       <c r="C3">
-        <v>0.1846934509052858</v>
+        <v>0.416950666609722</v>
       </c>
       <c r="D3">
-        <v>0.1577935054873976</v>
+        <v>0.06329847385413956</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.544679415121983</v>
+        <v>0.6632789672599628</v>
       </c>
       <c r="G3">
-        <v>0.002477993517129873</v>
+        <v>0.0008143702020554366</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9489868317012231</v>
+        <v>0.3492533981914896</v>
       </c>
       <c r="J3">
-        <v>0.1954383489362055</v>
+        <v>0.08355277837268105</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3647141112970473</v>
+        <v>0.2080143989263163</v>
       </c>
       <c r="M3">
-        <v>0.3005162760387918</v>
+        <v>0.4067129120823267</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.834246426473754</v>
+        <v>1.662264706846528</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.057536925209604</v>
+        <v>2.056145051867134</v>
       </c>
       <c r="C4">
-        <v>0.1748252893644349</v>
+        <v>0.3874833007472773</v>
       </c>
       <c r="D4">
-        <v>0.1577437270608293</v>
+        <v>0.06168141806517724</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.552527625682515</v>
+        <v>0.6591543942365519</v>
       </c>
       <c r="G4">
-        <v>0.0024798082109431</v>
+        <v>0.000817034553688486</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9573873776198987</v>
+        <v>0.359433282976763</v>
       </c>
       <c r="J4">
-        <v>0.196361499002272</v>
+        <v>0.08511143392622422</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3626574857707965</v>
+        <v>0.1967876192404816</v>
       </c>
       <c r="M4">
-        <v>0.2901542426530241</v>
+        <v>0.3708859766337227</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.856571794901555</v>
+        <v>1.65601124187971</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.031573406753751</v>
+        <v>1.97162860258095</v>
       </c>
       <c r="C5">
-        <v>0.1707902509213852</v>
+        <v>0.3754675406599119</v>
       </c>
       <c r="D5">
-        <v>0.1577331865717788</v>
+        <v>0.06103371952520575</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.555948446384313</v>
+        <v>0.6578538797922207</v>
       </c>
       <c r="G5">
-        <v>0.002480571103935357</v>
+        <v>0.0008181423640062393</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9609497030683656</v>
+        <v>0.3638251939756856</v>
       </c>
       <c r="J5">
-        <v>0.1967508923840118</v>
+        <v>0.08576554964241545</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3618496127635993</v>
+        <v>0.1922528425907331</v>
       </c>
       <c r="M5">
-        <v>0.2859455529281831</v>
+        <v>0.3563077819798579</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.866269687236027</v>
+        <v>1.654540589684842</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02726273806104</v>
+        <v>1.957596217260118</v>
       </c>
       <c r="C6">
-        <v>0.1701194166899143</v>
+        <v>0.3734717791001856</v>
       </c>
       <c r="D6">
-        <v>0.1577320259859505</v>
+        <v>0.06092683935778354</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.556529915987745</v>
+        <v>0.6576604158456902</v>
       </c>
       <c r="G6">
-        <v>0.002480699196641567</v>
+        <v>0.0008183276586826063</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9615496197180384</v>
+        <v>0.3645689164196853</v>
       </c>
       <c r="J6">
-        <v>0.1968163489747816</v>
+        <v>0.08587530438038549</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3617172950190977</v>
+        <v>0.1915022034291951</v>
       </c>
       <c r="M6">
-        <v>0.2852475535097696</v>
+        <v>0.3538882433016752</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.867916252225427</v>
+        <v>1.6543600304297</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.057186736171104</v>
+        <v>2.055005116339657</v>
       </c>
       <c r="C7">
-        <v>0.1747709264993773</v>
+        <v>0.3873212870553004</v>
       </c>
       <c r="D7">
-        <v>0.1577435454025675</v>
+        <v>0.06167263785091848</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.552572858735132</v>
+        <v>0.6591353372088804</v>
       </c>
       <c r="G7">
-        <v>0.002479818404848191</v>
+        <v>0.0008170494040528354</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9574348575380363</v>
+        <v>0.359491539571998</v>
       </c>
       <c r="J7">
-        <v>0.1963666970097453</v>
+        <v>0.08512017906666181</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3626464679860959</v>
+        <v>0.196726302078261</v>
       </c>
       <c r="M7">
-        <v>0.2900974259951496</v>
+        <v>0.3706892891896558</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.856700154588523</v>
+        <v>1.655987110401099</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.189302686181975</v>
+        <v>2.485248885538738</v>
       </c>
       <c r="C8">
-        <v>0.1951762440750713</v>
+        <v>0.4483789072172613</v>
       </c>
       <c r="D8">
-        <v>0.1578798273994053</v>
+        <v>0.0650635916034048</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.537065597073628</v>
+        <v>0.6690278816067661</v>
       </c>
       <c r="G8">
-        <v>0.00247613682819277</v>
+        <v>0.0008116014290517519</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9404981201725846</v>
+        <v>0.3392485587514287</v>
       </c>
       <c r="J8">
-        <v>0.1944983194723378</v>
+        <v>0.08195484716513235</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.367011651011282</v>
+        <v>0.2201391368162291</v>
       </c>
       <c r="M8">
-        <v>0.311620229938903</v>
+        <v>0.4450316573158233</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.81247535253226</v>
+        <v>1.672764744042411</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.44852027938424</v>
+        <v>3.332322021592745</v>
       </c>
       <c r="C9">
-        <v>0.2347427671507489</v>
+        <v>0.5681576242368749</v>
       </c>
       <c r="D9">
-        <v>0.1584518437378364</v>
+        <v>0.07209929041692931</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.513681559714712</v>
+        <v>0.7017759932123937</v>
       </c>
       <c r="G9">
-        <v>0.002469650000985923</v>
+        <v>0.0008015834900193455</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9116776412100123</v>
+        <v>0.3079582726727068</v>
       </c>
       <c r="J9">
-        <v>0.1912491025817076</v>
+        <v>0.07636022592405922</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3765162238181432</v>
+        <v>0.2675280012394694</v>
       </c>
       <c r="M9">
-        <v>0.3542440023846893</v>
+        <v>0.5919133498147033</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.744711058976833</v>
+        <v>1.743722457670259</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.638982757266547</v>
+        <v>3.958779910589783</v>
       </c>
       <c r="C10">
-        <v>0.263529984633891</v>
+        <v>0.6564566981400333</v>
       </c>
       <c r="D10">
-        <v>0.1590559976427741</v>
+        <v>0.07753194009066533</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.500786903740817</v>
+        <v>0.7351721268346125</v>
       </c>
       <c r="G10">
-        <v>0.002465326398685249</v>
+        <v>0.0007946016520375114</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8931846853836589</v>
+        <v>0.2907298190285097</v>
       </c>
       <c r="J10">
-        <v>0.1891131047604606</v>
+        <v>0.07263596565586106</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3840693957238841</v>
+        <v>0.3034342589517394</v>
       </c>
       <c r="M10">
-        <v>0.3858019164046809</v>
+        <v>0.7008850489308429</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.706505970381727</v>
+        <v>1.822655551431637</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.725619096886589</v>
+        <v>4.245165401539452</v>
       </c>
       <c r="C11">
-        <v>0.2765630148292644</v>
+        <v>0.6967569494398163</v>
       </c>
       <c r="D11">
-        <v>0.1593703832989917</v>
+        <v>0.08006738650206557</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.49585200067115</v>
+        <v>0.7526773891093157</v>
       </c>
       <c r="G11">
-        <v>0.002463454573369717</v>
+        <v>0.0007915011375706282</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8853548047959166</v>
+        <v>0.2842941280695435</v>
       </c>
       <c r="J11">
-        <v>0.1881955944174241</v>
+        <v>0.07102854927526181</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3876282208110382</v>
+        <v>0.3200510567980785</v>
       </c>
       <c r="M11">
-        <v>0.4002086380611942</v>
+        <v>0.7507830079266711</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.69164528115229</v>
+        <v>1.865242167647068</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.758423638306795</v>
+        <v>4.353858437923975</v>
       </c>
       <c r="C12">
-        <v>0.2814891047784727</v>
+        <v>0.7120425016383649</v>
       </c>
       <c r="D12">
-        <v>0.1594950855071815</v>
+        <v>0.08103731016078797</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.494117189634935</v>
+        <v>0.7596644132393138</v>
       </c>
       <c r="G12">
-        <v>0.002462759352079846</v>
+        <v>0.0007903373546385359</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8824737010821089</v>
+        <v>0.2820722878568631</v>
       </c>
       <c r="J12">
-        <v>0.1878559213664719</v>
+        <v>0.07043261606779794</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.38899340661861</v>
+        <v>0.3263881025329596</v>
       </c>
       <c r="M12">
-        <v>0.4056711332700971</v>
+        <v>0.7697332690177348</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.686380542409353</v>
+        <v>1.882406361363422</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.751358746192011</v>
+        <v>4.330437830058941</v>
       </c>
       <c r="C13">
-        <v>0.2804285980461714</v>
+        <v>0.7087492896974368</v>
       </c>
       <c r="D13">
-        <v>0.1594679778971724</v>
+        <v>0.08082797384667373</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.494484854704751</v>
+        <v>0.7581432769492906</v>
       </c>
       <c r="G13">
-        <v>0.002462908476613471</v>
+        <v>0.0007905875465624914</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8830904648907563</v>
+        <v>0.2825410009967548</v>
       </c>
       <c r="J13">
-        <v>0.1879287308704782</v>
+        <v>0.07056038870703318</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3886986115690121</v>
+        <v>0.3250212555704763</v>
       </c>
       <c r="M13">
-        <v>0.4044943819171323</v>
+        <v>0.765649410116481</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.687498260546135</v>
+        <v>1.878662311202532</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.728318012391526</v>
+        <v>4.254102474178978</v>
       </c>
       <c r="C14">
-        <v>0.2769684737929197</v>
+        <v>0.6980139714270877</v>
       </c>
       <c r="D14">
-        <v>0.1593805295748041</v>
+        <v>0.08014698267847109</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.495706592224586</v>
+        <v>0.7532448848943147</v>
       </c>
       <c r="G14">
-        <v>0.002463397105020535</v>
+        <v>0.0007914051890058804</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8851160924682198</v>
+        <v>0.2841069409172903</v>
       </c>
       <c r="J14">
-        <v>0.1881674937425064</v>
+        <v>0.07097926406228439</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3877401847619382</v>
+        <v>0.320571491332899</v>
       </c>
       <c r="M14">
-        <v>0.4006579027887085</v>
+        <v>0.7523409067179543</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.691204876661459</v>
+        <v>1.866633020204432</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.714204482109835</v>
+        <v>4.20737810807708</v>
       </c>
       <c r="C15">
-        <v>0.2748478373354146</v>
+        <v>0.6914416746566872</v>
       </c>
       <c r="D15">
-        <v>0.1593276998231445</v>
+        <v>0.07973115100374883</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.496472385135874</v>
+        <v>0.7502919105864692</v>
       </c>
       <c r="G15">
-        <v>0.002463698172952562</v>
+        <v>0.0007919073449746854</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8863677778417376</v>
+        <v>0.2850945740956945</v>
       </c>
       <c r="J15">
-        <v>0.188314753933998</v>
+        <v>0.07123750783539151</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3871554005349367</v>
+        <v>0.3178518160143824</v>
       </c>
       <c r="M15">
-        <v>0.3983088480298989</v>
+        <v>0.7441964757878239</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.693522531319985</v>
+        <v>1.859402237491764</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.633320585505203</v>
+        <v>3.94009583124739</v>
       </c>
       <c r="C16">
-        <v>0.2626769671554143</v>
+        <v>0.6538261223951167</v>
       </c>
       <c r="D16">
-        <v>0.1590362445849109</v>
+        <v>0.07736758185587433</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.501128149449528</v>
+        <v>0.7340768048295487</v>
       </c>
       <c r="G16">
-        <v>0.002465450633201921</v>
+        <v>0.0007948057521472599</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.893708121034237</v>
+        <v>0.2911797569323582</v>
       </c>
       <c r="J16">
-        <v>0.1891741543911536</v>
+        <v>0.07274278389113498</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3838392790856062</v>
+        <v>0.3023543350355595</v>
       </c>
       <c r="M16">
-        <v>0.3848613983983</v>
+        <v>0.6976313401424648</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.707527878830774</v>
+        <v>1.820013285324535</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.583698044115067</v>
+        <v>3.776516473512402</v>
       </c>
       <c r="C17">
-        <v>0.2551943598049604</v>
+        <v>0.6307880299444548</v>
       </c>
       <c r="D17">
-        <v>0.1588675506902959</v>
+        <v>0.07593443184846649</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.504222790374939</v>
+        <v>0.7247394220726093</v>
       </c>
       <c r="G17">
-        <v>0.002466549998314329</v>
+        <v>0.0007966028030257366</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8983604995232817</v>
+        <v>0.2952812301829653</v>
       </c>
       <c r="J17">
-        <v>0.1897152270262019</v>
+        <v>0.07368864119291452</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3818363182504498</v>
+        <v>0.2929222992779614</v>
       </c>
       <c r="M17">
-        <v>0.376624615001333</v>
+        <v>0.6691542347738917</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.716765204821797</v>
+        <v>1.797613316449315</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.55515601887879</v>
+        <v>3.682559594744646</v>
       </c>
       <c r="C18">
-        <v>0.250884702155389</v>
+        <v>0.6175492392159185</v>
       </c>
       <c r="D18">
-        <v>0.1587742475126532</v>
+        <v>0.07511611826616615</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.506090366900402</v>
+        <v>0.7195849025536702</v>
       </c>
       <c r="G18">
-        <v>0.002467191270070211</v>
+        <v>0.0007976435661863714</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9010912601191592</v>
+        <v>0.2977713427859747</v>
       </c>
       <c r="J18">
-        <v>0.1900315372588857</v>
+        <v>0.07424082229701945</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3806958390250088</v>
+        <v>0.2875236126552778</v>
       </c>
       <c r="M18">
-        <v>0.3718918427439775</v>
+        <v>0.6528051386328428</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.722315343445302</v>
+        <v>1.785353224750082</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.545492159994524</v>
+        <v>3.650768427253695</v>
       </c>
       <c r="C19">
-        <v>0.2494245276492961</v>
+        <v>0.6130687274058744</v>
       </c>
       <c r="D19">
-        <v>0.1587432975618484</v>
+        <v>0.07484006406370014</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.506737743311618</v>
+        <v>0.717876037156401</v>
       </c>
       <c r="G19">
-        <v>0.00246740993189809</v>
+        <v>0.0007979971942945236</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9020252632379595</v>
+        <v>0.298636559928962</v>
       </c>
       <c r="J19">
-        <v>0.1901395109608082</v>
+        <v>0.07442917259885995</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.380311683621315</v>
+        <v>0.2857001237181152</v>
       </c>
       <c r="M19">
-        <v>0.3702902432684496</v>
+        <v>0.6472745633068229</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.724235228697268</v>
+        <v>1.781307045335581</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.588980508917814</v>
+        <v>3.793916058856496</v>
       </c>
       <c r="C20">
-        <v>0.2559915044902255</v>
+        <v>0.6332391813120921</v>
       </c>
       <c r="D20">
-        <v>0.1588851231764608</v>
+        <v>0.07608636839805172</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.50388429167883</v>
+        <v>0.7257108581694283</v>
       </c>
       <c r="G20">
-        <v>0.002466432043725531</v>
+        <v>0.0007964107680708933</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8978595697710681</v>
+        <v>0.2948309618789615</v>
       </c>
       <c r="J20">
-        <v>0.1896571012861585</v>
+        <v>0.07358710768502164</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3820483402497672</v>
+        <v>0.2939235986160895</v>
       </c>
       <c r="M20">
-        <v>0.3775009394913837</v>
+        <v>0.6721824910319469</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.71575733623385</v>
+        <v>1.799932732356297</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.73508572438999</v>
+        <v>4.276517009411918</v>
       </c>
       <c r="C21">
-        <v>0.2779850488760758</v>
+        <v>0.7011664761960787</v>
       </c>
       <c r="D21">
-        <v>0.1594060621852904</v>
+        <v>0.08034673528872105</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.495344103001848</v>
+        <v>0.7546737283533247</v>
       </c>
       <c r="G21">
-        <v>0.002463253214602431</v>
+        <v>0.0007911647521518057</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8845188385381384</v>
+        <v>0.2836410317201796</v>
       </c>
       <c r="J21">
-        <v>0.1880971526371713</v>
+        <v>0.0708558815490683</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3880212230563131</v>
+        <v>0.321877250892797</v>
       </c>
       <c r="M21">
-        <v>0.4017845828450106</v>
+        <v>0.7562483768487098</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.690106306984859</v>
+        <v>1.870137512982438</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.830556969550457</v>
+        <v>4.593375442013325</v>
       </c>
       <c r="C22">
-        <v>0.2923051495134814</v>
+        <v>0.745707965550622</v>
       </c>
       <c r="D22">
-        <v>0.1597794485578419</v>
+        <v>0.08318858771831117</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.490543268394418</v>
+        <v>0.7757034830485594</v>
       </c>
       <c r="G22">
-        <v>0.002461254898300994</v>
+        <v>0.0007877960166729527</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8762889993392982</v>
+        <v>0.2775892730957068</v>
       </c>
       <c r="J22">
-        <v>0.1871229056033474</v>
+        <v>0.06914539055801505</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3920270006377109</v>
+        <v>0.3404087373678237</v>
       </c>
       <c r="M22">
-        <v>0.4176958934873838</v>
+        <v>0.8115150180540951</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.675456071417756</v>
+        <v>1.922108065570654</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.779604344503582</v>
+        <v>4.42411433397217</v>
       </c>
       <c r="C23">
-        <v>0.2846672642363046</v>
+        <v>0.7219198797331785</v>
       </c>
       <c r="D23">
-        <v>0.1595771648128945</v>
+        <v>0.08166637481272687</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.493034112527454</v>
+        <v>0.7642783545497309</v>
       </c>
       <c r="G23">
-        <v>0.002462314208258111</v>
+        <v>0.000789588690626541</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8806366282372302</v>
+        <v>0.2806990074250031</v>
       </c>
       <c r="J23">
-        <v>0.1876387442026921</v>
+        <v>0.07005139431663743</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3898797373867922</v>
+        <v>0.3304927632753021</v>
       </c>
       <c r="M23">
-        <v>0.4092001268736354</v>
+        <v>0.7819856195149697</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.683081579995957</v>
+        <v>1.893786414057189</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.586592348068336</v>
+        <v>3.786049438303053</v>
       </c>
       <c r="C24">
-        <v>0.2556311396776039</v>
+        <v>0.6321309971522453</v>
       </c>
       <c r="D24">
-        <v>0.1588771671867804</v>
+        <v>0.07601766041207725</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.50403705150044</v>
+        <v>0.7252710082958558</v>
       </c>
       <c r="G24">
-        <v>0.002466485342308469</v>
+        <v>0.0007964975633221856</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8980858655385617</v>
+        <v>0.2950341176736089</v>
       </c>
       <c r="J24">
-        <v>0.1896833636083528</v>
+        <v>0.07363298485615211</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3819524506762946</v>
+        <v>0.2934708369862733</v>
       </c>
       <c r="M24">
-        <v>0.3771047448658393</v>
+        <v>0.6708133460541248</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.71621224769504</v>
+        <v>1.798882205411445</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.378387420023955</v>
+        <v>3.102602403628225</v>
       </c>
       <c r="C25">
-        <v>0.2240879053355229</v>
+        <v>0.5357228856720155</v>
       </c>
       <c r="D25">
-        <v>0.1582646678893198</v>
+        <v>0.07015182589814373</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.519255148204074</v>
+        <v>0.6913686199598317</v>
       </c>
       <c r="G25">
-        <v>0.002471326874499742</v>
+        <v>0.0008042250926547834</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9190037219731764</v>
+        <v>0.3154599957969673</v>
       </c>
       <c r="J25">
-        <v>0.1920838743794366</v>
+        <v>0.0778068816342099</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3738444557761653</v>
+        <v>0.2545312013682377</v>
       </c>
       <c r="M25">
-        <v>0.342669720181668</v>
+        <v>0.5520220956401474</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.761010911946329</v>
+        <v>1.720094852638454</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.601980071359435</v>
+        <v>0.8111401498544524</v>
       </c>
       <c r="C2">
-        <v>0.464916214594183</v>
+        <v>0.1580829250908664</v>
       </c>
       <c r="D2">
-        <v>0.06600751695940232</v>
+        <v>0.2784526236529814</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6725698164247973</v>
+        <v>0.636368353096266</v>
       </c>
       <c r="G2">
-        <v>0.0008101713029101759</v>
+        <v>0.3140295534259536</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002736007655529504</v>
       </c>
       <c r="I2">
-        <v>0.3343104000704251</v>
+        <v>0.001438835382366666</v>
       </c>
       <c r="J2">
-        <v>0.08113821632138318</v>
+        <v>0.3023159529094173</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2826911851087566</v>
       </c>
       <c r="L2">
-        <v>0.2265761611943518</v>
+        <v>0.2282025570241757</v>
       </c>
       <c r="M2">
-        <v>0.4652354612060137</v>
+        <v>0.9035254699574864</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.679760602152271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4187804545473526</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.245883578298148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.263634966707059</v>
+        <v>0.7092381762411151</v>
       </c>
       <c r="C3">
-        <v>0.416950666609722</v>
+        <v>0.1424177929781365</v>
       </c>
       <c r="D3">
-        <v>0.06329847385413956</v>
+        <v>0.2485970676406879</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6632789672599628</v>
+        <v>0.6172708726916056</v>
       </c>
       <c r="G3">
-        <v>0.0008143702020554366</v>
+        <v>0.310439170736025</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004162806289421561</v>
       </c>
       <c r="I3">
-        <v>0.3492533981914896</v>
+        <v>0.002159318723319092</v>
       </c>
       <c r="J3">
-        <v>0.08355277837268105</v>
+        <v>0.3047123534159653</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2883057705845449</v>
       </c>
       <c r="L3">
-        <v>0.2080143989263163</v>
+        <v>0.2081295055869958</v>
       </c>
       <c r="M3">
-        <v>0.4067129120823267</v>
+        <v>0.793896832162801</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.662264706846528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3656240195945912</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.243028420197746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.056145051867134</v>
+        <v>0.6463768925934232</v>
       </c>
       <c r="C4">
-        <v>0.3874833007472773</v>
+        <v>0.1329196009935174</v>
       </c>
       <c r="D4">
-        <v>0.06168141806517724</v>
+        <v>0.2303308037287763</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6591543942365519</v>
+        <v>0.6059496623243916</v>
       </c>
       <c r="G4">
-        <v>0.000817034553688486</v>
+        <v>0.3085515430622365</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005228426754426918</v>
       </c>
       <c r="I4">
-        <v>0.359433282976763</v>
+        <v>0.002752958427771457</v>
       </c>
       <c r="J4">
-        <v>0.08511143392622422</v>
+        <v>0.3064085068235656</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2919708211339085</v>
       </c>
       <c r="L4">
-        <v>0.1967876192404816</v>
+        <v>0.1957496501179747</v>
       </c>
       <c r="M4">
-        <v>0.3708859766337227</v>
+        <v>0.7265357791281417</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.65601124187971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3330079432080808</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.24241095392361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.97162860258095</v>
+        <v>0.6203516080903739</v>
       </c>
       <c r="C5">
-        <v>0.3754675406599119</v>
+        <v>0.1294448868065956</v>
       </c>
       <c r="D5">
-        <v>0.06103371952520575</v>
+        <v>0.2230147052388105</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6578538797922207</v>
+        <v>0.6009954715717001</v>
       </c>
       <c r="G5">
-        <v>0.0008181423640062393</v>
+        <v>0.3075270732012356</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005710069482160629</v>
       </c>
       <c r="I5">
-        <v>0.3638251939756856</v>
+        <v>0.003105643799902413</v>
       </c>
       <c r="J5">
-        <v>0.08576554964241545</v>
+        <v>0.3069789904427438</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2932551544727922</v>
       </c>
       <c r="L5">
-        <v>0.1922528425907331</v>
+        <v>0.1906500084155738</v>
       </c>
       <c r="M5">
-        <v>0.3563077819798579</v>
+        <v>0.6993899895807658</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.654540589684842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3198375822569233</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.241363536485949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.957596217260118</v>
+        <v>0.6156168370302169</v>
       </c>
       <c r="C6">
-        <v>0.3734717791001856</v>
+        <v>0.1293215363893836</v>
       </c>
       <c r="D6">
-        <v>0.06092683935778354</v>
+        <v>0.2219390613889374</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6576604158456902</v>
+        <v>0.5996423367993273</v>
       </c>
       <c r="G6">
-        <v>0.0008183276586826063</v>
+        <v>0.3069560569532754</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005794618903449789</v>
       </c>
       <c r="I6">
-        <v>0.3645689164196853</v>
+        <v>0.003264467439899832</v>
       </c>
       <c r="J6">
-        <v>0.08587530438038549</v>
+        <v>0.3068620128513189</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2931512382657608</v>
       </c>
       <c r="L6">
-        <v>0.1915022034291951</v>
+        <v>0.1897537128290949</v>
       </c>
       <c r="M6">
-        <v>0.3538882433016752</v>
+        <v>0.6952743324059867</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.6543600304297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.317795105930827</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.239896066442739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.055005116339657</v>
+        <v>0.6449063335978451</v>
       </c>
       <c r="C7">
-        <v>0.3873212870553004</v>
+        <v>0.134109457511272</v>
       </c>
       <c r="D7">
-        <v>0.06167263785091848</v>
+        <v>0.2306105625284545</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6591353372088804</v>
+        <v>0.6044195351139763</v>
       </c>
       <c r="G7">
-        <v>0.0008170494040528354</v>
+        <v>0.307431580616857</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005239415884171872</v>
       </c>
       <c r="I7">
-        <v>0.359491539571998</v>
+        <v>0.003009981248351501</v>
       </c>
       <c r="J7">
-        <v>0.08512017906666181</v>
+        <v>0.3058305703785038</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.291115355987202</v>
       </c>
       <c r="L7">
-        <v>0.196726302078261</v>
+        <v>0.1955486088037475</v>
       </c>
       <c r="M7">
-        <v>0.3706892891896558</v>
+        <v>0.7272468068967015</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.655987110401099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3332252322877878</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.238824963152183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.485248885538738</v>
+        <v>0.7745685023943167</v>
       </c>
       <c r="C8">
-        <v>0.4483789072172613</v>
+        <v>0.1543086575792643</v>
       </c>
       <c r="D8">
-        <v>0.0650635916034048</v>
+        <v>0.2686475682540106</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6690278816067661</v>
+        <v>0.6277706700362344</v>
       </c>
       <c r="G8">
-        <v>0.0008116014290517519</v>
+        <v>0.311269560295365</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003192043039626169</v>
       </c>
       <c r="I8">
-        <v>0.3392485587514287</v>
+        <v>0.001958780538866556</v>
       </c>
       <c r="J8">
-        <v>0.08195484716513235</v>
+        <v>0.3023288894945324</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2834407537490407</v>
       </c>
       <c r="L8">
-        <v>0.2201391368162291</v>
+        <v>0.2211181773339348</v>
       </c>
       <c r="M8">
-        <v>0.4450316573158233</v>
+        <v>0.8671745438903713</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.672764744042411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4009717313331933</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.239970200474517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.332322021592745</v>
+        <v>1.028610890498101</v>
       </c>
       <c r="C9">
-        <v>0.5681576242368749</v>
+        <v>0.1927403203353037</v>
       </c>
       <c r="D9">
-        <v>0.07209929041692931</v>
+        <v>0.3431596556267351</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7017759932123937</v>
+        <v>0.6795606231913141</v>
       </c>
       <c r="G9">
-        <v>0.0008015834900193455</v>
+        <v>0.3234209524017899</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0007590962150356706</v>
       </c>
       <c r="I9">
-        <v>0.3079582726727068</v>
+        <v>0.0007850305726524454</v>
       </c>
       <c r="J9">
-        <v>0.07636022592405922</v>
+        <v>0.2983379860576534</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2717168572945035</v>
       </c>
       <c r="L9">
-        <v>0.2675280012394694</v>
+        <v>0.2711183831297674</v>
       </c>
       <c r="M9">
-        <v>0.5919133498147033</v>
+        <v>1.139442951486615</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.743722457670259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5334097169877765</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.257990389361836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.958779910589783</v>
+        <v>1.216891512713204</v>
       </c>
       <c r="C10">
-        <v>0.6564566981400333</v>
+        <v>0.2222334237434325</v>
       </c>
       <c r="D10">
-        <v>0.07753194009066533</v>
+        <v>0.3885248416346201</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7351721268346125</v>
+        <v>0.7078421556943795</v>
       </c>
       <c r="G10">
-        <v>0.0007946016520375114</v>
+        <v>0.3288310213589369</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002696557556176593</v>
       </c>
       <c r="I10">
-        <v>0.2907298190285097</v>
+        <v>0.0009239592365881677</v>
       </c>
       <c r="J10">
-        <v>0.07263596565586106</v>
+        <v>0.2938848329182164</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2613235615478224</v>
       </c>
       <c r="L10">
-        <v>0.3034342589517394</v>
+        <v>0.2917436961285063</v>
       </c>
       <c r="M10">
-        <v>0.7008850489308429</v>
+        <v>1.342959215352863</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.822655551431637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.618013906068434</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.260552404649687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.245165401539452</v>
+        <v>1.331392578480234</v>
       </c>
       <c r="C11">
-        <v>0.6967569494398163</v>
+        <v>0.2364415385198129</v>
       </c>
       <c r="D11">
-        <v>0.08006738650206557</v>
+        <v>0.3263813880246715</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7526773891093157</v>
+        <v>0.6237702276009145</v>
       </c>
       <c r="G11">
-        <v>0.0007915011375706282</v>
+        <v>0.2897685444582336</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01888426597504278</v>
       </c>
       <c r="I11">
-        <v>0.2842941280695435</v>
+        <v>0.001536977596776623</v>
       </c>
       <c r="J11">
-        <v>0.07102854927526181</v>
+        <v>0.2706505256044807</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2348080017526257</v>
       </c>
       <c r="L11">
-        <v>0.3200510567980785</v>
+        <v>0.1844210029007627</v>
       </c>
       <c r="M11">
-        <v>0.7507830079266711</v>
+        <v>1.461878766852351</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.865242167647068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5455296017515749</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.129245904709535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.353858437923975</v>
+        <v>1.39162025696254</v>
       </c>
       <c r="C12">
-        <v>0.7120425016383649</v>
+        <v>0.2401543942773685</v>
       </c>
       <c r="D12">
-        <v>0.08103731016078797</v>
+        <v>0.2689587430011358</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7596644132393138</v>
+        <v>0.5533242580398721</v>
       </c>
       <c r="G12">
-        <v>0.0007903373546385359</v>
+        <v>0.2589279872099723</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05764418917839009</v>
       </c>
       <c r="I12">
-        <v>0.2820722878568631</v>
+        <v>0.00156234611568884</v>
       </c>
       <c r="J12">
-        <v>0.07043261606779794</v>
+        <v>0.253479598831845</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2172427020826646</v>
       </c>
       <c r="L12">
-        <v>0.3263881025329596</v>
+        <v>0.1187249791520593</v>
       </c>
       <c r="M12">
-        <v>0.7697332690177348</v>
+        <v>1.518591239275707</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.882406361363422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4704820624080597</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.027958960337415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.330437830058941</v>
+        <v>1.411202968612145</v>
       </c>
       <c r="C13">
-        <v>0.7087492896974368</v>
+        <v>0.2379430198689079</v>
       </c>
       <c r="D13">
-        <v>0.08082797384667373</v>
+        <v>0.2127120254324666</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7581432769492906</v>
+        <v>0.4869918699189171</v>
       </c>
       <c r="G13">
-        <v>0.0007905875465624914</v>
+        <v>0.2307876978050913</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1135393322486067</v>
       </c>
       <c r="I13">
-        <v>0.2825410009967548</v>
+        <v>0.001477450431690563</v>
       </c>
       <c r="J13">
-        <v>0.07056038870703318</v>
+        <v>0.2389774603179688</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.204052738488306</v>
       </c>
       <c r="L13">
-        <v>0.3250212555704763</v>
+        <v>0.08081796249647155</v>
       </c>
       <c r="M13">
-        <v>0.765649410116481</v>
+        <v>1.531874778454409</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.878662311202532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3902444224488377</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9379044093789588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.254102474178978</v>
+        <v>1.406076613480622</v>
       </c>
       <c r="C14">
-        <v>0.6980139714270877</v>
+        <v>0.234122357295476</v>
       </c>
       <c r="D14">
-        <v>0.08014698267847109</v>
+        <v>0.1749941678890963</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7532448848943147</v>
+        <v>0.4430095656183539</v>
       </c>
       <c r="G14">
-        <v>0.0007914051890058804</v>
+        <v>0.2124100052337141</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1630234165859008</v>
       </c>
       <c r="I14">
-        <v>0.2841069409172903</v>
+        <v>0.001458066607169961</v>
       </c>
       <c r="J14">
-        <v>0.07097926406228439</v>
+        <v>0.2300409865777979</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1968305546824638</v>
       </c>
       <c r="L14">
-        <v>0.320571491332899</v>
+        <v>0.07070704698164842</v>
       </c>
       <c r="M14">
-        <v>0.7523409067179543</v>
+        <v>1.52180978974306</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.866633020204432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3330003876649599</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8801727819566452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.20737810807708</v>
+        <v>1.395395902899395</v>
       </c>
       <c r="C15">
-        <v>0.6914416746566872</v>
+        <v>0.2324602805065297</v>
       </c>
       <c r="D15">
-        <v>0.07973115100374883</v>
+        <v>0.1655650572191689</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7502919105864692</v>
+        <v>0.4323055830254177</v>
       </c>
       <c r="G15">
-        <v>0.0007919073449746854</v>
+        <v>0.2080245338508178</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1755935345037045</v>
       </c>
       <c r="I15">
-        <v>0.2850945740956945</v>
+        <v>0.001549265971365621</v>
       </c>
       <c r="J15">
-        <v>0.07123750783539151</v>
+        <v>0.2281972255539202</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1956353313140102</v>
       </c>
       <c r="L15">
-        <v>0.3178518160143824</v>
+        <v>0.07037255625328331</v>
       </c>
       <c r="M15">
-        <v>0.7441964757878239</v>
+        <v>1.510371266049958</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.859402237491764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3176130781126574</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8669824309683065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.94009583124739</v>
+        <v>1.308559034977065</v>
       </c>
       <c r="C16">
-        <v>0.6538261223951167</v>
+        <v>0.2209075074958378</v>
       </c>
       <c r="D16">
-        <v>0.07736758185587433</v>
+        <v>0.1591681185149412</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7340768048295487</v>
+        <v>0.4334252649515946</v>
       </c>
       <c r="G16">
-        <v>0.0007948057521472599</v>
+        <v>0.2106911929694704</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1631599135695723</v>
       </c>
       <c r="I16">
-        <v>0.2911797569323582</v>
+        <v>0.001581879023166088</v>
       </c>
       <c r="J16">
-        <v>0.07274278389113498</v>
+        <v>0.2325252896911323</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2019582954876977</v>
       </c>
       <c r="L16">
-        <v>0.3023543350355595</v>
+        <v>0.07008160576344213</v>
       </c>
       <c r="M16">
-        <v>0.6976313401424648</v>
+        <v>1.419710598738362</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.820013285324535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3001219421188424</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.881524940326031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.776516473512402</v>
+        <v>1.24484191008537</v>
       </c>
       <c r="C17">
-        <v>0.6307880299444548</v>
+        <v>0.2141600913338237</v>
       </c>
       <c r="D17">
-        <v>0.07593443184846649</v>
+        <v>0.1736021059743678</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7247394220726093</v>
+        <v>0.4571559431388579</v>
       </c>
       <c r="G17">
-        <v>0.0007966028030257366</v>
+        <v>0.2223653139933788</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1255397645415712</v>
       </c>
       <c r="I17">
-        <v>0.2952812301829653</v>
+        <v>0.001657240204495203</v>
       </c>
       <c r="J17">
-        <v>0.07368864119291452</v>
+        <v>0.2405721688650857</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2105799074366033</v>
       </c>
       <c r="L17">
-        <v>0.2929222992779614</v>
+        <v>0.07252208149290063</v>
       </c>
       <c r="M17">
-        <v>0.6691542347738917</v>
+        <v>1.355792959028491</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.797613316449315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3162964167542412</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.9230218057589497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.682559594744646</v>
+        <v>1.195221500647989</v>
       </c>
       <c r="C18">
-        <v>0.6175492392159185</v>
+        <v>0.2096437541744507</v>
       </c>
       <c r="D18">
-        <v>0.07511611826616615</v>
+        <v>0.2101698824661611</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7195849025536702</v>
+        <v>0.506282650505689</v>
       </c>
       <c r="G18">
-        <v>0.0007976435661863714</v>
+        <v>0.2446689845475234</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07267464100988263</v>
       </c>
       <c r="I18">
-        <v>0.2977713427859747</v>
+        <v>0.001451825923866501</v>
       </c>
       <c r="J18">
-        <v>0.07424082229701945</v>
+        <v>0.2534516213727969</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2233141695886278</v>
       </c>
       <c r="L18">
-        <v>0.2875236126552778</v>
+        <v>0.0918037035275745</v>
       </c>
       <c r="M18">
-        <v>0.6528051386328428</v>
+        <v>1.306877494485093</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.785353224750082</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3656583724818603</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9972258804041445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.650768427253695</v>
+        <v>1.158797943168452</v>
       </c>
       <c r="C19">
-        <v>0.6130687274058744</v>
+        <v>0.2097828388277776</v>
       </c>
       <c r="D19">
-        <v>0.07484006406370014</v>
+        <v>0.2669192922184749</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.717876037156401</v>
+        <v>0.5740856966425127</v>
       </c>
       <c r="G19">
-        <v>0.0007979971942945236</v>
+        <v>0.2738123170213669</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02715365199886577</v>
       </c>
       <c r="I19">
-        <v>0.298636559928962</v>
+        <v>0.001563847513120109</v>
       </c>
       <c r="J19">
-        <v>0.07442917259885995</v>
+        <v>0.2690607959699278</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2384312950710079</v>
       </c>
       <c r="L19">
-        <v>0.2857001237181152</v>
+        <v>0.1444039382267661</v>
       </c>
       <c r="M19">
-        <v>0.6472745633068229</v>
+        <v>1.276190605173497</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.781307045335581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4431942344243112</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.091693705026643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.793916058856496</v>
+        <v>1.164074315472163</v>
       </c>
       <c r="C20">
-        <v>0.6332391813120921</v>
+        <v>0.2184436882861576</v>
       </c>
       <c r="D20">
-        <v>0.07608636839805172</v>
+        <v>0.3773573266531969</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7257108581694283</v>
+        <v>0.6953184750552879</v>
       </c>
       <c r="G20">
-        <v>0.0007964107680708933</v>
+        <v>0.3237271299102957</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0003139050408336175</v>
       </c>
       <c r="I20">
-        <v>0.2948309618789615</v>
+        <v>0.001604949964813862</v>
       </c>
       <c r="J20">
-        <v>0.07358710768502164</v>
+        <v>0.2931168048526231</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.261285644150167</v>
       </c>
       <c r="L20">
-        <v>0.2939235986160895</v>
+        <v>0.2852620329415174</v>
       </c>
       <c r="M20">
-        <v>0.6721824910319469</v>
+        <v>1.293087605405958</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.799932732356297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5964806343501365</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.248015979731193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.276517009411918</v>
+        <v>1.303612751619653</v>
       </c>
       <c r="C21">
-        <v>0.7011664761960787</v>
+        <v>0.2408184239330495</v>
       </c>
       <c r="D21">
-        <v>0.08034673528872105</v>
+        <v>0.4276737466724114</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7546737283533247</v>
+        <v>0.7364296064137505</v>
       </c>
       <c r="G21">
-        <v>0.0007911647521518057</v>
+        <v>0.3367093049548089</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.270042487597436E-06</v>
       </c>
       <c r="I21">
-        <v>0.2836410317201796</v>
+        <v>0.001852883470003341</v>
       </c>
       <c r="J21">
-        <v>0.0708558815490683</v>
+        <v>0.2942951314876368</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2582261566131479</v>
       </c>
       <c r="L21">
-        <v>0.321877250892797</v>
+        <v>0.3257578186850907</v>
       </c>
       <c r="M21">
-        <v>0.7562483768487098</v>
+        <v>1.444493504242558</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.870137512982438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6818043459333794</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.278321604121146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.593375442013325</v>
+        <v>1.397875239447103</v>
       </c>
       <c r="C22">
-        <v>0.745707965550622</v>
+        <v>0.2538655612147238</v>
       </c>
       <c r="D22">
-        <v>0.08318858771831117</v>
+        <v>0.4550619845217625</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7757034830485594</v>
+        <v>0.7598782440763259</v>
       </c>
       <c r="G22">
-        <v>0.0007877960166729527</v>
+        <v>0.344541908361478</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0001350043866905626</v>
       </c>
       <c r="I22">
-        <v>0.2775892730957068</v>
+        <v>0.001896435716428613</v>
       </c>
       <c r="J22">
-        <v>0.06914539055801505</v>
+        <v>0.2947886731150149</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2562440071245504</v>
       </c>
       <c r="L22">
-        <v>0.3404087373678237</v>
+        <v>0.3442912715987489</v>
       </c>
       <c r="M22">
-        <v>0.8115150180540951</v>
+        <v>1.543520241056456</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.922108065570654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7304255662893127</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.296159278061964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.42411433397217</v>
+        <v>1.348945258858521</v>
       </c>
       <c r="C23">
-        <v>0.7219198797331785</v>
+        <v>0.2453522959848868</v>
       </c>
       <c r="D23">
-        <v>0.08166637481272687</v>
+        <v>0.4399749319604211</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7642783545497309</v>
+        <v>0.7490023392729128</v>
       </c>
       <c r="G23">
-        <v>0.000789588690626541</v>
+        <v>0.3415885381164259</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.315511467756217E-05</v>
       </c>
       <c r="I23">
-        <v>0.2806990074250031</v>
+        <v>0.001558143794961886</v>
       </c>
       <c r="J23">
-        <v>0.07005139431663743</v>
+        <v>0.2951597247764326</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2582485641246492</v>
       </c>
       <c r="L23">
-        <v>0.3304927632753021</v>
+        <v>0.3345509368497233</v>
       </c>
       <c r="M23">
-        <v>0.7819856195149697</v>
+        <v>1.489329255720122</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.893786414057189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7039866627994371</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.290569301980682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.786049438303053</v>
+        <v>1.161161446331903</v>
       </c>
       <c r="C24">
-        <v>0.6321309971522453</v>
+        <v>0.2158789591489096</v>
       </c>
       <c r="D24">
-        <v>0.07601766041207725</v>
+        <v>0.3838102950226414</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7252710082958558</v>
+        <v>0.7062553672712895</v>
       </c>
       <c r="G24">
-        <v>0.0007964975633221856</v>
+        <v>0.3292742264309396</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001702463156567635</v>
       </c>
       <c r="I24">
-        <v>0.2950341176736089</v>
+        <v>0.001117329568109504</v>
       </c>
       <c r="J24">
-        <v>0.07363298485615211</v>
+        <v>0.2960578333642658</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2648441724190853</v>
       </c>
       <c r="L24">
-        <v>0.2934708369862733</v>
+        <v>0.2974343291002555</v>
       </c>
       <c r="M24">
-        <v>0.6708133460541248</v>
+        <v>1.286449286331163</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.798882205411445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6048526403180006</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.265931846791048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.102602403628225</v>
+        <v>0.9580490653368372</v>
       </c>
       <c r="C25">
-        <v>0.5357228856720155</v>
+        <v>0.1845127305301872</v>
       </c>
       <c r="D25">
-        <v>0.07015182589814373</v>
+        <v>0.3236181127657716</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6913686199598317</v>
+        <v>0.6625451229434844</v>
       </c>
       <c r="G25">
-        <v>0.0008042250926547834</v>
+        <v>0.3178596348748215</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.00123874400085433</v>
       </c>
       <c r="I25">
-        <v>0.3154599957969673</v>
+        <v>0.001386620761664403</v>
       </c>
       <c r="J25">
-        <v>0.0778068816342099</v>
+        <v>0.2981811369030751</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2731606133937596</v>
       </c>
       <c r="L25">
-        <v>0.2545312013682377</v>
+        <v>0.2573878180886453</v>
       </c>
       <c r="M25">
-        <v>0.5520220956401474</v>
+        <v>1.067769329759557</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.720094852638454</v>
+        <v>0.4982545131698046</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.245710595437785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8111401498544524</v>
+        <v>0.8057604180841054</v>
       </c>
       <c r="C2">
-        <v>0.1580829250908664</v>
+        <v>0.1624340599442888</v>
       </c>
       <c r="D2">
-        <v>0.2784526236529814</v>
+        <v>0.2847024419799311</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.636368353096266</v>
+        <v>0.6127861583482357</v>
       </c>
       <c r="G2">
-        <v>0.3140295534259536</v>
+        <v>0.2796644035657039</v>
       </c>
       <c r="H2">
-        <v>0.002736007655529504</v>
+        <v>0.002485358923140613</v>
       </c>
       <c r="I2">
-        <v>0.001438835382366666</v>
+        <v>0.001050296635405346</v>
       </c>
       <c r="J2">
-        <v>0.3023159529094173</v>
+        <v>0.3173884736530042</v>
       </c>
       <c r="K2">
-        <v>0.2826911851087566</v>
+        <v>0.2602254440102314</v>
       </c>
       <c r="L2">
-        <v>0.2282025570241757</v>
+        <v>0.1351939140119214</v>
       </c>
       <c r="M2">
-        <v>0.9035254699574864</v>
+        <v>0.06707948951136444</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2284857207834179</v>
       </c>
       <c r="O2">
-        <v>0.4187804545473526</v>
+        <v>0.9171229460916948</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.245883578298148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4241450691119439</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.180283876289565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7092381762411151</v>
+        <v>0.7075257070946464</v>
       </c>
       <c r="C3">
-        <v>0.1424177929781365</v>
+        <v>0.1425627909652576</v>
       </c>
       <c r="D3">
-        <v>0.2485970676406879</v>
+        <v>0.2539738944975198</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6172708726916056</v>
+        <v>0.5965954929237043</v>
       </c>
       <c r="G3">
-        <v>0.310439170736025</v>
+        <v>0.2789123361429802</v>
       </c>
       <c r="H3">
-        <v>0.004162806289421561</v>
+        <v>0.003802415152330707</v>
       </c>
       <c r="I3">
-        <v>0.002159318723319092</v>
+        <v>0.001512558835794042</v>
       </c>
       <c r="J3">
-        <v>0.3047123534159653</v>
+        <v>0.3183308865827499</v>
       </c>
       <c r="K3">
-        <v>0.2883057705845449</v>
+        <v>0.2666020494647157</v>
       </c>
       <c r="L3">
-        <v>0.2081295055869958</v>
+        <v>0.1403893782391687</v>
       </c>
       <c r="M3">
-        <v>0.793896832162801</v>
+        <v>0.06815479167782268</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2089979197734948</v>
       </c>
       <c r="O3">
-        <v>0.3656240195945912</v>
+        <v>0.8043768159959654</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.243028420197746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3698285411082551</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.182949897482345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6463768925934232</v>
+        <v>0.6468400270836696</v>
       </c>
       <c r="C4">
-        <v>0.1329196009935174</v>
+        <v>0.1305827821758641</v>
       </c>
       <c r="D4">
-        <v>0.2303308037287763</v>
+        <v>0.2351970453898531</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6059496623243916</v>
+        <v>0.5869672216997088</v>
       </c>
       <c r="G4">
-        <v>0.3085515430622365</v>
+        <v>0.2787732203009625</v>
       </c>
       <c r="H4">
-        <v>0.005228426754426918</v>
+        <v>0.004788211409703591</v>
       </c>
       <c r="I4">
-        <v>0.002752958427771457</v>
+        <v>0.001925119650434404</v>
       </c>
       <c r="J4">
-        <v>0.3064085068235656</v>
+        <v>0.3189921482190528</v>
       </c>
       <c r="K4">
-        <v>0.2919708211339085</v>
+        <v>0.2706775856376886</v>
       </c>
       <c r="L4">
-        <v>0.1957496501179747</v>
+        <v>0.1437522672962395</v>
       </c>
       <c r="M4">
-        <v>0.7265357791281417</v>
+        <v>0.06926708455613539</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1969737628796295</v>
       </c>
       <c r="O4">
-        <v>0.3330079432080808</v>
+        <v>0.7351513151881051</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.24241095392361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3365143299409112</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.185474660946497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6203516080903739</v>
+        <v>0.6216887060247984</v>
       </c>
       <c r="C5">
-        <v>0.1294448868065956</v>
+        <v>0.1261366322395929</v>
       </c>
       <c r="D5">
-        <v>0.2230147052388105</v>
+        <v>0.2276783383730674</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6009954715717001</v>
+        <v>0.5826938114895555</v>
       </c>
       <c r="G5">
-        <v>0.3075270732012356</v>
+        <v>0.2784808473522062</v>
       </c>
       <c r="H5">
-        <v>0.005710069482160629</v>
+        <v>0.005234214259365821</v>
       </c>
       <c r="I5">
-        <v>0.003105643799902413</v>
+        <v>0.002210578184390855</v>
       </c>
       <c r="J5">
-        <v>0.3069789904427438</v>
+        <v>0.3191056382253663</v>
       </c>
       <c r="K5">
-        <v>0.2932551544727922</v>
+        <v>0.2721329542945199</v>
       </c>
       <c r="L5">
-        <v>0.1906500084155738</v>
+        <v>0.1450281487900913</v>
       </c>
       <c r="M5">
-        <v>0.6993899895807658</v>
+        <v>0.06978648030068424</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1920189821504579</v>
       </c>
       <c r="O5">
-        <v>0.3198375822569233</v>
+        <v>0.7072561972810547</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.241363536485949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.323061962929394</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.185690649568116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6156168370302169</v>
+        <v>0.6171053288451276</v>
       </c>
       <c r="C6">
-        <v>0.1293215363893836</v>
+        <v>0.1258720378192777</v>
       </c>
       <c r="D6">
-        <v>0.2219390613889374</v>
+        <v>0.2265682367438444</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5996423367993273</v>
+        <v>0.581469137101017</v>
       </c>
       <c r="G6">
-        <v>0.3069560569532754</v>
+        <v>0.2780543981017729</v>
       </c>
       <c r="H6">
-        <v>0.005794618903449789</v>
+        <v>0.005312530425813144</v>
       </c>
       <c r="I6">
-        <v>0.003264467439899832</v>
+        <v>0.002374091043449766</v>
       </c>
       <c r="J6">
-        <v>0.3068620128513189</v>
+        <v>0.3189103195131722</v>
       </c>
       <c r="K6">
-        <v>0.2931512382657608</v>
+        <v>0.272078817220784</v>
       </c>
       <c r="L6">
-        <v>0.1897537128290949</v>
+        <v>0.1450751106699606</v>
       </c>
       <c r="M6">
-        <v>0.6952743324059867</v>
+        <v>0.06982152711226952</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1911475792712736</v>
       </c>
       <c r="O6">
-        <v>0.317795105930827</v>
+        <v>0.7030137170675346</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.239896066442739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3209713101239018</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.184483802120212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6449063335978451</v>
+        <v>0.6454935084381361</v>
       </c>
       <c r="C7">
-        <v>0.134109457511272</v>
+        <v>0.1316329614029854</v>
       </c>
       <c r="D7">
-        <v>0.2306105625284545</v>
+        <v>0.2357307805953184</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6044195351139763</v>
+        <v>0.5846794934427209</v>
       </c>
       <c r="G7">
-        <v>0.307431580616857</v>
+        <v>0.2796443278174223</v>
       </c>
       <c r="H7">
-        <v>0.005239415884171872</v>
+        <v>0.004801820317637706</v>
       </c>
       <c r="I7">
-        <v>0.003009981248351501</v>
+        <v>0.002225698008289534</v>
       </c>
       <c r="J7">
-        <v>0.3058305703785038</v>
+        <v>0.3153869984427686</v>
       </c>
       <c r="K7">
-        <v>0.291115355987202</v>
+        <v>0.2695921345202894</v>
       </c>
       <c r="L7">
-        <v>0.1955486088037475</v>
+        <v>0.1431674596921066</v>
       </c>
       <c r="M7">
-        <v>0.7272468068967015</v>
+        <v>0.06903941527166513</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1967452582444977</v>
       </c>
       <c r="O7">
-        <v>0.3332252322877878</v>
+        <v>0.7356467123285313</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.238824963152183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3367612693349713</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.180084272406276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7745685023943167</v>
+        <v>0.7708085628604806</v>
       </c>
       <c r="C8">
-        <v>0.1543086575792643</v>
+        <v>0.1566678120706939</v>
       </c>
       <c r="D8">
-        <v>0.2686475682540106</v>
+        <v>0.2754608077741665</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6277706700362344</v>
+        <v>0.602594884837437</v>
       </c>
       <c r="G8">
-        <v>0.311269560295365</v>
+        <v>0.2843917533508389</v>
       </c>
       <c r="H8">
-        <v>0.003192043039626169</v>
+        <v>0.002914065127348708</v>
       </c>
       <c r="I8">
-        <v>0.001958780538866556</v>
+        <v>0.001544384979537128</v>
       </c>
       <c r="J8">
-        <v>0.3023288894945324</v>
+        <v>0.3071997686517918</v>
       </c>
       <c r="K8">
-        <v>0.2834407537490407</v>
+        <v>0.2603957847213039</v>
       </c>
       <c r="L8">
-        <v>0.2211181773339348</v>
+        <v>0.1359772477625079</v>
       </c>
       <c r="M8">
-        <v>0.8671745438903713</v>
+        <v>0.0668188859136194</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2215059225616614</v>
       </c>
       <c r="O8">
-        <v>0.4009717313331933</v>
+        <v>0.8790200074323309</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.239970200474517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4060534207853124</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.17008351198109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.028610890498101</v>
+        <v>1.015320160972038</v>
       </c>
       <c r="C9">
-        <v>0.1927403203353037</v>
+        <v>0.205925521762282</v>
       </c>
       <c r="D9">
-        <v>0.3431596556267351</v>
+        <v>0.3525502873367827</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6795606231913141</v>
+        <v>0.6458354691728374</v>
       </c>
       <c r="G9">
-        <v>0.3234209524017899</v>
+        <v>0.2912083624180184</v>
       </c>
       <c r="H9">
-        <v>0.0007590962150356706</v>
+        <v>0.0006766362699284212</v>
       </c>
       <c r="I9">
-        <v>0.0007850305726524454</v>
+        <v>0.0008260992116850829</v>
       </c>
       <c r="J9">
-        <v>0.2983379860576534</v>
+        <v>0.303427011645212</v>
       </c>
       <c r="K9">
-        <v>0.2717168572945035</v>
+        <v>0.2461568243399554</v>
       </c>
       <c r="L9">
-        <v>0.2711183831297674</v>
+        <v>0.1245079043610016</v>
       </c>
       <c r="M9">
-        <v>1.139442951486615</v>
+        <v>0.06668682896447464</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2699960517985431</v>
       </c>
       <c r="O9">
-        <v>0.5334097169877765</v>
+        <v>1.159138345442784</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.257990389361836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5414935708920794</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.171064153373436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.216891512713204</v>
+        <v>1.19709963290677</v>
       </c>
       <c r="C10">
-        <v>0.2222334237434325</v>
+        <v>0.2423681980465489</v>
       </c>
       <c r="D10">
-        <v>0.3885248416346201</v>
+        <v>0.4012176251399922</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7078421556943795</v>
+        <v>0.6636645716551541</v>
       </c>
       <c r="G10">
-        <v>0.3288310213589369</v>
+        <v>0.304892554394975</v>
       </c>
       <c r="H10">
-        <v>0.0002696557556176593</v>
+        <v>0.0002564837729530645</v>
       </c>
       <c r="I10">
-        <v>0.0009239592365881677</v>
+        <v>0.001183299658087833</v>
       </c>
       <c r="J10">
-        <v>0.2938848329182164</v>
+        <v>0.2833405069967228</v>
       </c>
       <c r="K10">
-        <v>0.2613235615478224</v>
+        <v>0.2326911386579038</v>
       </c>
       <c r="L10">
-        <v>0.2917436961285063</v>
+        <v>0.1155890047355577</v>
       </c>
       <c r="M10">
-        <v>1.342959215352863</v>
+        <v>0.06721071060977835</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2894520026268879</v>
       </c>
       <c r="O10">
-        <v>0.618013906068434</v>
+        <v>1.367091551857243</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.260552404649687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6283242789648327</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.151013999340165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.331392578480234</v>
+        <v>1.312737565248369</v>
       </c>
       <c r="C11">
-        <v>0.2364415385198129</v>
+        <v>0.2539602441973159</v>
       </c>
       <c r="D11">
-        <v>0.3263813880246715</v>
+        <v>0.3404832627091707</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6237702276009145</v>
+        <v>0.5758904068482664</v>
       </c>
       <c r="G11">
-        <v>0.2897685444582336</v>
+        <v>0.2923935210862112</v>
       </c>
       <c r="H11">
-        <v>0.01888426597504278</v>
+        <v>0.01887633075278572</v>
       </c>
       <c r="I11">
-        <v>0.001536977596776623</v>
+        <v>0.001926536579813565</v>
       </c>
       <c r="J11">
-        <v>0.2706505256044807</v>
+        <v>0.2392381853924554</v>
       </c>
       <c r="K11">
-        <v>0.2348080017526257</v>
+        <v>0.2075728686524627</v>
       </c>
       <c r="L11">
-        <v>0.1844210029007627</v>
+        <v>0.1055777506225848</v>
       </c>
       <c r="M11">
-        <v>1.461878766852351</v>
+        <v>0.05948824125087526</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1824779846500917</v>
       </c>
       <c r="O11">
-        <v>0.5455296017515749</v>
+        <v>1.482925623912053</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.129245904709535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5551264164216647</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.011374856084743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.39162025696254</v>
+        <v>1.375112075308635</v>
       </c>
       <c r="C12">
-        <v>0.2401543942773685</v>
+        <v>0.2543825835956852</v>
       </c>
       <c r="D12">
-        <v>0.2689587430011358</v>
+        <v>0.2823666767414608</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5533242580398721</v>
+        <v>0.5077574957984794</v>
       </c>
       <c r="G12">
-        <v>0.2589279872099723</v>
+        <v>0.2731519087647314</v>
       </c>
       <c r="H12">
-        <v>0.05764418917839009</v>
+        <v>0.05763754178914127</v>
       </c>
       <c r="I12">
-        <v>0.00156234611568884</v>
+        <v>0.001952752771251731</v>
       </c>
       <c r="J12">
-        <v>0.253479598831845</v>
+        <v>0.2202935032155118</v>
       </c>
       <c r="K12">
-        <v>0.2172427020826646</v>
+        <v>0.1927093881248787</v>
       </c>
       <c r="L12">
-        <v>0.1187249791520593</v>
+        <v>0.1004489931596746</v>
       </c>
       <c r="M12">
-        <v>1.518591239275707</v>
+        <v>0.0539059314561996</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.11736961434341</v>
       </c>
       <c r="O12">
-        <v>0.4704820624080597</v>
+        <v>1.536615812758498</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.027958960337415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4789250759343702</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9152790627357064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.411202968612145</v>
+        <v>1.39748810863307</v>
       </c>
       <c r="C13">
-        <v>0.2379430198689079</v>
+        <v>0.2488621805452738</v>
       </c>
       <c r="D13">
-        <v>0.2127120254324666</v>
+        <v>0.2235948127851799</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4869918699189171</v>
+        <v>0.4491679160915396</v>
       </c>
       <c r="G13">
-        <v>0.2307876978050913</v>
+        <v>0.2420905872821137</v>
       </c>
       <c r="H13">
-        <v>0.1135393322486067</v>
+        <v>0.113526062800247</v>
       </c>
       <c r="I13">
-        <v>0.001477450431690563</v>
+        <v>0.001852203975789557</v>
       </c>
       <c r="J13">
-        <v>0.2389774603179688</v>
+        <v>0.2153161133012098</v>
       </c>
       <c r="K13">
-        <v>0.204052738488306</v>
+        <v>0.1835166012343148</v>
       </c>
       <c r="L13">
-        <v>0.08081796249647155</v>
+        <v>0.09775309848219571</v>
       </c>
       <c r="M13">
-        <v>1.531874778454409</v>
+        <v>0.04949355254585086</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08020316182952314</v>
       </c>
       <c r="O13">
-        <v>0.3902444224488377</v>
+        <v>1.547332955528418</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9379044093789588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.397101371899879</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8430095198314405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.406076613480622</v>
+        <v>1.394617650738894</v>
       </c>
       <c r="C14">
-        <v>0.234122357295476</v>
+        <v>0.2427244636599397</v>
       </c>
       <c r="D14">
-        <v>0.1749941678890963</v>
+        <v>0.1835761530279711</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4430095656183539</v>
+        <v>0.4123079969977894</v>
       </c>
       <c r="G14">
-        <v>0.2124100052337141</v>
+        <v>0.2165517838015987</v>
       </c>
       <c r="H14">
-        <v>0.1630234165859008</v>
+        <v>0.1629989062444679</v>
       </c>
       <c r="I14">
-        <v>0.001458066607169961</v>
+        <v>0.001826884173397936</v>
       </c>
       <c r="J14">
-        <v>0.2300409865777979</v>
+        <v>0.2162365323967279</v>
       </c>
       <c r="K14">
-        <v>0.1968305546824638</v>
+        <v>0.1793643396299283</v>
       </c>
       <c r="L14">
-        <v>0.07070704698164842</v>
+        <v>0.09672052147598098</v>
       </c>
       <c r="M14">
-        <v>1.52180978974306</v>
+        <v>0.0469747477949678</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07061225153322193</v>
       </c>
       <c r="O14">
-        <v>0.3330003876649599</v>
+        <v>1.53565967032668</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.8801727819566452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3386104726803083</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8018163592478658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.395395902899395</v>
+        <v>1.384625046251074</v>
       </c>
       <c r="C15">
-        <v>0.2324602805065297</v>
+        <v>0.2404949946503194</v>
       </c>
       <c r="D15">
-        <v>0.1655650572191689</v>
+        <v>0.1733525211896279</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4323055830254177</v>
+        <v>0.4041206381643505</v>
       </c>
       <c r="G15">
-        <v>0.2080245338508178</v>
+        <v>0.2084528255288589</v>
       </c>
       <c r="H15">
-        <v>0.1755935345037045</v>
+        <v>0.1755626098893259</v>
       </c>
       <c r="I15">
-        <v>0.001549265971365621</v>
+        <v>0.001933268435304392</v>
       </c>
       <c r="J15">
-        <v>0.2281972255539202</v>
+        <v>0.2183218592296399</v>
       </c>
       <c r="K15">
-        <v>0.1956353313140102</v>
+        <v>0.179089521300873</v>
       </c>
       <c r="L15">
-        <v>0.07037255625328331</v>
+        <v>0.09674636491406918</v>
       </c>
       <c r="M15">
-        <v>1.510371266049958</v>
+        <v>0.04650437278529651</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0704251871500734</v>
       </c>
       <c r="O15">
-        <v>0.3176130781126574</v>
+        <v>1.523913187785013</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.8669824309683065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3228409273628614</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7945420453450396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.308559034977065</v>
+        <v>1.299086420877444</v>
       </c>
       <c r="C16">
-        <v>0.2209075074958378</v>
+        <v>0.2285039016006465</v>
       </c>
       <c r="D16">
-        <v>0.1591681185149412</v>
+        <v>0.1647600398056426</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4334252649515946</v>
+        <v>0.4122487906906045</v>
       </c>
       <c r="G16">
-        <v>0.2106911929694704</v>
+        <v>0.1950036423049113</v>
       </c>
       <c r="H16">
-        <v>0.1631599135695723</v>
+        <v>0.1630897843148631</v>
       </c>
       <c r="I16">
-        <v>0.001581879023166088</v>
+        <v>0.001927944497707834</v>
       </c>
       <c r="J16">
-        <v>0.2325252896911323</v>
+        <v>0.2380785245373538</v>
       </c>
       <c r="K16">
-        <v>0.2019582954876977</v>
+        <v>0.1868942988281752</v>
       </c>
       <c r="L16">
-        <v>0.07008160576344213</v>
+        <v>0.09981557228664961</v>
       </c>
       <c r="M16">
-        <v>1.419710598738362</v>
+        <v>0.04814785584295933</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07043387299495407</v>
       </c>
       <c r="O16">
-        <v>0.3001219421188424</v>
+        <v>1.433831200744805</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.881524940326031</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3045757206801696</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8254895780200968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.24484191008537</v>
+        <v>1.235335407369917</v>
       </c>
       <c r="C17">
-        <v>0.2141600913338237</v>
+        <v>0.2223442894061662</v>
       </c>
       <c r="D17">
-        <v>0.1736021059743678</v>
+        <v>0.1787379918491609</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4571559431388579</v>
+        <v>0.437441479785214</v>
       </c>
       <c r="G17">
-        <v>0.2223653139933788</v>
+        <v>0.1994443748542096</v>
       </c>
       <c r="H17">
-        <v>0.1255397645415712</v>
+        <v>0.1254446921428212</v>
       </c>
       <c r="I17">
-        <v>0.001657240204495203</v>
+        <v>0.001974521873457036</v>
       </c>
       <c r="J17">
-        <v>0.2405721688650857</v>
+        <v>0.2532574527882012</v>
       </c>
       <c r="K17">
-        <v>0.2105799074366033</v>
+        <v>0.1951340438915299</v>
       </c>
       <c r="L17">
-        <v>0.07252208149290063</v>
+        <v>0.1030402677974775</v>
       </c>
       <c r="M17">
-        <v>1.355792959028491</v>
+        <v>0.05055862615028328</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07288115111206217</v>
       </c>
       <c r="O17">
-        <v>0.3162964167542412</v>
+        <v>1.370857598738354</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9230218057589497</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3208096675379011</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8702807460363289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.195221500647989</v>
+        <v>1.184341743358004</v>
       </c>
       <c r="C18">
-        <v>0.2096437541744507</v>
+        <v>0.2196998110216555</v>
       </c>
       <c r="D18">
-        <v>0.2101698824661611</v>
+        <v>0.2158816715164278</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.506282650505689</v>
+        <v>0.4845860477308364</v>
       </c>
       <c r="G18">
-        <v>0.2446689845475234</v>
+        <v>0.2167979422925086</v>
       </c>
       <c r="H18">
-        <v>0.07267464100988263</v>
+        <v>0.07257403502568138</v>
       </c>
       <c r="I18">
-        <v>0.001451825923866501</v>
+        <v>0.001707523559256963</v>
       </c>
       <c r="J18">
-        <v>0.2534516213727969</v>
+        <v>0.2685336505899159</v>
       </c>
       <c r="K18">
-        <v>0.2233141695886278</v>
+        <v>0.2060339768460135</v>
       </c>
       <c r="L18">
-        <v>0.0918037035275745</v>
+        <v>0.1072789417519751</v>
       </c>
       <c r="M18">
-        <v>1.306877494485093</v>
+        <v>0.05427925891588536</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09190313783971504</v>
       </c>
       <c r="O18">
-        <v>0.3656583724818603</v>
+        <v>1.323730764851234</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9972258804041445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3709306988006631</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9396273418362853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.158797943168452</v>
+        <v>1.145598258750283</v>
       </c>
       <c r="C19">
-        <v>0.2097828388277776</v>
+        <v>0.2228793406699197</v>
       </c>
       <c r="D19">
-        <v>0.2669192922184749</v>
+        <v>0.2739713418107073</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5740856966425127</v>
+        <v>0.5479732206942458</v>
       </c>
       <c r="G19">
-        <v>0.2738123170213669</v>
+        <v>0.2417234268994335</v>
       </c>
       <c r="H19">
-        <v>0.02715365199886577</v>
+        <v>0.02706884500126705</v>
       </c>
       <c r="I19">
-        <v>0.001563847513120109</v>
+        <v>0.00185149717719213</v>
       </c>
       <c r="J19">
-        <v>0.2690607959699278</v>
+        <v>0.2836079456116636</v>
       </c>
       <c r="K19">
-        <v>0.2384312950710079</v>
+        <v>0.2182891758723606</v>
       </c>
       <c r="L19">
-        <v>0.1444039382267661</v>
+        <v>0.1119720931632173</v>
       </c>
       <c r="M19">
-        <v>1.276190605173497</v>
+        <v>0.05878591526223964</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1439665023614225</v>
       </c>
       <c r="O19">
-        <v>0.4431942344243112</v>
+        <v>1.295480355764795</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.091693705026643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4497962869119121</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.023741247000743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.164074315472163</v>
+        <v>1.14577991498507</v>
       </c>
       <c r="C20">
-        <v>0.2184436882861576</v>
+        <v>0.2377159207154449</v>
       </c>
       <c r="D20">
-        <v>0.3773573266531969</v>
+        <v>0.3882004785710222</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6953184750552879</v>
+        <v>0.6570253575723441</v>
       </c>
       <c r="G20">
-        <v>0.3237271299102957</v>
+        <v>0.2906958731120142</v>
       </c>
       <c r="H20">
-        <v>0.0003139050408336175</v>
+        <v>0.0002860578707593042</v>
       </c>
       <c r="I20">
-        <v>0.001604949964813862</v>
+        <v>0.001975298469926834</v>
       </c>
       <c r="J20">
-        <v>0.2931168048526231</v>
+        <v>0.296353885115451</v>
       </c>
       <c r="K20">
-        <v>0.261285644150167</v>
+        <v>0.2347871038115166</v>
       </c>
       <c r="L20">
-        <v>0.2852620329415174</v>
+        <v>0.117335134113306</v>
       </c>
       <c r="M20">
-        <v>1.293087605405958</v>
+        <v>0.06641817013013629</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.283391363989125</v>
       </c>
       <c r="O20">
-        <v>0.5964806343501365</v>
+        <v>1.316745352867969</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.248015979731193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6060506376377646</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.152154382021777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.303612751619653</v>
+        <v>1.28149850430674</v>
       </c>
       <c r="C21">
-        <v>0.2408184239330495</v>
+        <v>0.262523013474123</v>
       </c>
       <c r="D21">
-        <v>0.4276737466724114</v>
+        <v>0.446781128508519</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7364296064137505</v>
+        <v>0.6734062975972819</v>
       </c>
       <c r="G21">
-        <v>0.3367093049548089</v>
+        <v>0.3493761463444685</v>
       </c>
       <c r="H21">
-        <v>4.270042487597436E-06</v>
+        <v>4.670883157142924E-06</v>
       </c>
       <c r="I21">
-        <v>0.001852883470003341</v>
+        <v>0.00229850188561187</v>
       </c>
       <c r="J21">
-        <v>0.2942951314876368</v>
+        <v>0.2427983365605506</v>
       </c>
       <c r="K21">
-        <v>0.2582261566131479</v>
+        <v>0.2234629951813147</v>
       </c>
       <c r="L21">
-        <v>0.3257578186850907</v>
+        <v>0.1105953792557077</v>
       </c>
       <c r="M21">
-        <v>1.444493504242558</v>
+        <v>0.06672776905974409</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3222724824598799</v>
       </c>
       <c r="O21">
-        <v>0.6818043459333794</v>
+        <v>1.468285227925548</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.278321604121146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6941927459199562</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.12585820170321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.397875239447103</v>
+        <v>1.373533547306266</v>
       </c>
       <c r="C22">
-        <v>0.2538655612147238</v>
+        <v>0.2765564660509625</v>
       </c>
       <c r="D22">
-        <v>0.4550619845217625</v>
+        <v>0.4800491494190453</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7598782440763259</v>
+        <v>0.6795765912727347</v>
       </c>
       <c r="G22">
-        <v>0.344541908361478</v>
+        <v>0.3945362580315788</v>
       </c>
       <c r="H22">
-        <v>0.0001350043866905626</v>
+        <v>0.0001237394397699543</v>
       </c>
       <c r="I22">
-        <v>0.001896435716428613</v>
+        <v>0.00227994333683057</v>
       </c>
       <c r="J22">
-        <v>0.2947886731150149</v>
+        <v>0.2150380636546494</v>
       </c>
       <c r="K22">
-        <v>0.2562440071245504</v>
+        <v>0.2158004241949403</v>
       </c>
       <c r="L22">
-        <v>0.3442912715987489</v>
+        <v>0.1063750968200363</v>
       </c>
       <c r="M22">
-        <v>1.543520241056456</v>
+        <v>0.0669813793716898</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3397864150774694</v>
       </c>
       <c r="O22">
-        <v>0.7304255662893127</v>
+        <v>1.566910231586206</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.296159278061964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7446170424150864</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.104225441140287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.348945258858521</v>
+        <v>1.325490524655152</v>
       </c>
       <c r="C23">
-        <v>0.2453522959848868</v>
+        <v>0.2679147907528687</v>
       </c>
       <c r="D23">
-        <v>0.4399749319604211</v>
+        <v>0.4610546443373664</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7490023392729128</v>
+        <v>0.6799287049951488</v>
       </c>
       <c r="G23">
-        <v>0.3415885381164259</v>
+        <v>0.365252925880398</v>
       </c>
       <c r="H23">
-        <v>4.315511467756217E-05</v>
+        <v>4.128019472338096E-05</v>
       </c>
       <c r="I23">
-        <v>0.001558143794961886</v>
+        <v>0.001918975624798591</v>
       </c>
       <c r="J23">
-        <v>0.2951597247764326</v>
+        <v>0.2333937574562057</v>
       </c>
       <c r="K23">
-        <v>0.2582485641246492</v>
+        <v>0.2213349626996628</v>
       </c>
       <c r="L23">
-        <v>0.3345509368497233</v>
+        <v>0.1090550739958314</v>
       </c>
       <c r="M23">
-        <v>1.489329255720122</v>
+        <v>0.06747286935476282</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3306518272447221</v>
       </c>
       <c r="O23">
-        <v>0.7039866627994371</v>
+        <v>1.513474670275656</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.290569301980682</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.717114655435914</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.124176246786945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.161161446331903</v>
+        <v>1.142619251069249</v>
       </c>
       <c r="C24">
-        <v>0.2158789591489096</v>
+        <v>0.2352510333771676</v>
       </c>
       <c r="D24">
-        <v>0.3838102950226414</v>
+        <v>0.3947890130268945</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7062553672712895</v>
+        <v>0.6673815385738919</v>
       </c>
       <c r="G24">
-        <v>0.3292742264309396</v>
+        <v>0.2953711811643416</v>
       </c>
       <c r="H24">
-        <v>0.0001702463156567635</v>
+        <v>0.0001443597865522506</v>
       </c>
       <c r="I24">
-        <v>0.001117329568109504</v>
+        <v>0.001389446192526123</v>
       </c>
       <c r="J24">
-        <v>0.2960578333642658</v>
+        <v>0.2994489080678164</v>
       </c>
       <c r="K24">
-        <v>0.2648441724190853</v>
+        <v>0.23780398113289</v>
       </c>
       <c r="L24">
-        <v>0.2974343291002555</v>
+        <v>0.1184802746361502</v>
       </c>
       <c r="M24">
-        <v>1.286449286331163</v>
+        <v>0.06753394241065891</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2954808918890564</v>
       </c>
       <c r="O24">
-        <v>0.6048526403180006</v>
+        <v>1.310339915949129</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.265931846791048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6145807655395927</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.168563204573502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9580490653368372</v>
+        <v>0.9473231157539033</v>
       </c>
       <c r="C25">
-        <v>0.1845127305301872</v>
+        <v>0.1951133422321902</v>
       </c>
       <c r="D25">
-        <v>0.3236181127657716</v>
+        <v>0.3319079124839277</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6625451229434844</v>
+        <v>0.6324820089526213</v>
       </c>
       <c r="G25">
-        <v>0.3178596348748215</v>
+        <v>0.2844198721122169</v>
       </c>
       <c r="H25">
-        <v>0.00123874400085433</v>
+        <v>0.001113282268952132</v>
       </c>
       <c r="I25">
-        <v>0.001386620761664403</v>
+        <v>0.001407706042626522</v>
       </c>
       <c r="J25">
-        <v>0.2981811369030751</v>
+        <v>0.3074667880827704</v>
       </c>
       <c r="K25">
-        <v>0.2731606133937596</v>
+        <v>0.2489018388325714</v>
       </c>
       <c r="L25">
-        <v>0.2573878180886453</v>
+        <v>0.127061470655045</v>
       </c>
       <c r="M25">
-        <v>1.067769329759557</v>
+        <v>0.0660097249890832</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2567259676872879</v>
       </c>
       <c r="O25">
-        <v>0.4982545131698046</v>
+        <v>1.085581539641652</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.245710595437785</v>
+        <v>0.505456601110815</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.166780587106871</v>
       </c>
     </row>
   </sheetData>
